--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -31,1120 +31,1111 @@
     <t xml:space="preserve">Per</t>
   </si>
   <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set230_TrId31.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set50_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set157_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set90_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set296_TrId87.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set6_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set46_TrId36.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set177_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set64_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set206_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set530_TrId94.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set27_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set19_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set98_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set196_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set215_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set28_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set327_TrId105.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set105_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set33_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set95_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set162_TrId25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set45_TrId35.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set2_TrId2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set4_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set219_TrId43.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set85_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set40_TrId32.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set194_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set458_TrId47.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set467_TrId55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set20_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set109_TrId30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set92_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set15_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set496_TrId65.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set185_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set112_TrId33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set103_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set33_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set113_TrId34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set577_TrId134.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set60_TrId46.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set42_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set317_TrId99.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set171_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set53_TrId40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set106_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set79_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set259_TrId55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set21_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set132_TrId51.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set17_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set248_TrId46.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set253_TrId71.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set146_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set78_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set505_TrId73.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set208_TrId33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set56_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set82_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set195_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set116_TrId37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set92_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set96_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set189_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set49_TrId38.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set67_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set41_TrId26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set104_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set51_TrId40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set135_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set91_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set151_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set50_TrId38.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set218_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set155_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set12_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set338_TrId114.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set73_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set501_TrId69.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set194_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set63_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set136_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set13_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set49_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set157_TrId97.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set13_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set506_TrId74.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set351_TrId125.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set1_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set103_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set186_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set254_TrId72.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set230_TrId54.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set21_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set221_TrId45.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set108_TrId26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set7_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set162_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set106_TrId30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set69_TrId54.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set16_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set77_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set99_TrId65.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set529_TrId93.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set207_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set145_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set190_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set200_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set436_TrId30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set51_TrId35.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set345_TrId121.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set140_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set79_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set218_TrId42.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set74_TrId2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set113_TrId33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set142_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set78_TrId57.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set165_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set272_TrId65.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set176_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set92_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set15_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set152_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set361_TrId133.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set85_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set8_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set49_TrId37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set48_TrId37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set90_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set120_TrId40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set1_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set536_TrId99.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set26_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set339_TrId115.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set237_TrId58.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set417_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set374_TrId145.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set11_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set318_TrId100.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set229_TrId53.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set215_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set290_TrId81.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set106_TrId25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set23_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set444_TrId35.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set161_TrId101.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set18_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set54_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set7_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set192_TrId2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set101_TrId25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set62_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set19_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set62_TrId48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set43_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set406_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set343_TrId119.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set566_TrId123.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set44_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set9_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set178_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set60_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set243_TrId64.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set148_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set191_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set89_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set129_TrId48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set207_TrId33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set83_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set99_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set108_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set472_TrId58.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set17_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set169_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set448_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set105_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set85_TrId58.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set2_TrId2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set102_TrId26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set82_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set379_TrId150.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set45_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set6_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set511_TrId79.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set171_TrId110.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set84_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set99_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set133_TrId52.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set75_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set28_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set58_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set213_TrId38.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set86_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set97_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set424_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set95_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set573_TrId130.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set115_TrId36.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set154_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set198_TrId25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set154_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set219_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set61_TrId47.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set23_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set138_TrId57.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set59_TrId46.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set217_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set3_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set553_TrId111.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set42_TrId32.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set60_TrId47.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set48_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set97_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set8_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set485_TrId60.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set433_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set35_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set413_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set191_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set46_TrId26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set289_TrId80.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set342_TrId118.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set70_TrId50.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set59_TrId45.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set145_TrId64.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set326_TrId105.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set137_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set76_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set210_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set39_TrId31.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set232_TrId55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set257_TrId54.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set217_TrId41.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set93_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set86_TrId12.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">jurkat_I28.mat_Set96_TrId20.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set2_TrId2.png</t>
+    <t xml:space="preserve">jurkat_I16.mat_Set414_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set238_TrId38.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set149_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set38_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set325_TrId104.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set53_TrId42.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set91_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set565_TrId122.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set179_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set38_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set94_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set10_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set5_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set132_TrId88.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set19_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set368_TrId140.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set38_TrId30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set42_TrId2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set128_TrId47.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set31_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set10_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set407_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set118_TrId79.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set36_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set2_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set156_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set86_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set83_TrId10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set30_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set233_TrId34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set103_TrId69.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set5_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set429_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set114_TrId34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set49_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set216_TrId40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set73_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set117_TrId37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set170_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set157_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set32_TrId21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set30_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set331_TrId109.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set93_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set3_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set7_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set112_TrId30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set109_TrId27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set37_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set19_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set41_TrId33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set174_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set403_TrId4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set204_TrId31.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set85_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set175_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set22_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set220_TrId23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set9_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set204_TrId8.png</t>
   </si>
   <si>
     <t xml:space="preserve">jurkat_I16.mat_Set434_TrId28.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set94_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set506_TrId74.png</t>
+    <t xml:space="preserve">jurkat_I28.mat_Set98_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set29_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set166_TrId29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set55_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set405_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set94_TrId19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set130_TrId49.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set10_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set110_TrId28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set211_TrId36.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set332_TrId110.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set562_TrId119.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set12_TrId12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set146_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set52_TrId41.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set212_TrId37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set199_TrId26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set402_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set130_TrId86.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set205_TrId32.png</t>
   </si>
   <si>
     <t xml:space="preserve">jurkat_I28.mat_Set13_TrId12.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set530_TrId94.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set91_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set73_TrId1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set39_TrId31.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set82_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set99_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set189_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set206_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set69_TrId54.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set93_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set41_TrId26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set161_TrId101.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set40_TrId32.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set233_TrId34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set86_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set84_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set573_TrId130.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set41_TrId33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set77_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set109_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set254_TrId72.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set379_TrId150.png</t>
+    <t xml:space="preserve">jurkat_I16.mat_Set55_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set91_TrId15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set119_TrId80.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set46_TrId5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set400_TrId1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set11_TrId8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set39_TrId24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set238_TrId59.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set107_TrId31.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set294_TrId85.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I10.mat_Set112_TrId38.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set133_TrId89.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set103_TrId22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set525_TrId89.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set10_TrId7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set79_TrId58.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set125_TrId44.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set143_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set133_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set391_TrId161.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set115_TrId77.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set30_TrId20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set239_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set172_TrId6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set17_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set51_TrId39.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set26_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set81_TrId9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set456_TrId45.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I34.mat_Set18_TrId14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set225_TrId49.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set322_TrId103.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set242_TrId42.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set352_TrId126.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set14_TrId11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set44_TrId34.png</t>
   </si>
   <si>
     <t xml:space="preserve">jurkat_I34.mat_Set71_TrId1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set343_TrId119.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set109_TrId30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set28_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set162_TrId25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set63_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set93_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set215_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set64_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set49_TrId38.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set23_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set145_TrId64.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set90_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set290_TrId81.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set225_TrId49.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set162_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set31_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set99_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set219_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set407_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set152_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set403_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set60_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set505_TrId73.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set12_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set8_TrId5.png</t>
+    <t xml:space="preserve">jurkat_I28.mat_Set149_TrId17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set275_TrId68.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set188_TrId18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I22.mat_Set75_TrId3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I16.mat_Set244_TrId44.png</t>
   </si>
   <si>
     <t xml:space="preserve">jurkat_I22.mat_Set144_TrId63.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set177_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set130_TrId49.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set79_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set62_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set13_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set19_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set17_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set96_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set11_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set98_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set42_TrId32.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set44_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set19_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set294_TrId85.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set142_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set185_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set10_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set36_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set56_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set244_TrId44.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set46_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set19_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set23_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set417_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set248_TrId46.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set9_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set74_TrId2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set85_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set106_TrId25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set37_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set113_TrId34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set171_TrId110.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set157_TrId97.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set98_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set429_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set104_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set456_TrId45.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set217_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set46_TrId36.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set204_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set7_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set35_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set208_TrId33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set55_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set433_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set103_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set59_TrId45.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set229_TrId53.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set105_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set400_TrId1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set81_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set46_TrId26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set216_TrId40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set133_TrId52.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set218_TrId42.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set125_TrId44.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set317_TrId99.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set448_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set50_TrId38.png</t>
+    <t xml:space="preserve">jurkat_I34.mat_Set20_TrId16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set145_TrId13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurkat_I28.mat_Set134_TrId4.png</t>
   </si>
   <si>
     <t xml:space="preserve">jurkat_I28.mat_Set111_TrId32.png</t>
   </si>
   <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set2_TrId2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set339_TrId115.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set26_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set6_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set145_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set212_TrId37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set242_TrId42.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set205_TrId32.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set45_TrId35.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set92_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set39_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set151_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set101_TrId25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set145_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set485_TrId60.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set17_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set117_TrId37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set243_TrId64.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set12_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set7_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set272_TrId65.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set116_TrId37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set458_TrId47.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set238_TrId38.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set49_TrId37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set120_TrId40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set259_TrId55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set14_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set326_TrId105.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set166_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set73_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set218_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set194_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set374_TrId145.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set467_TrId55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set89_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set529_TrId93.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set149_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set10_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set49_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set239_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set106_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set79_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set3_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set165_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set94_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set207_TrId33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set67_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set190_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set106_TrId30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set230_TrId31.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set413_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set361_TrId133.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set178_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set107_TrId31.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set55_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set78_TrId57.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set42_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set536_TrId99.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set402_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set59_TrId46.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set113_TrId33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set176_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set133_TrId89.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set211_TrId36.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set2_TrId1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set26_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set95_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set3_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set565_TrId122.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set501_TrId69.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set90_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set405_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set53_TrId42.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set38_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set8_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set62_TrId48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set275_TrId68.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set577_TrId134.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set327_TrId105.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set58_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set472_TrId58.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set110_TrId28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set210_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set194_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set15_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set172_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set137_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set129_TrId48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set444_TrId35.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set119_TrId80.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set414_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set331_TrId109.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set155_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set149_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set133_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set51_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set1_TrId1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set220_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set97_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set171_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set48_TrId37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set230_TrId54.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set207_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set44_TrId34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set5_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set219_TrId43.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set5_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set138_TrId57.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set18_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set95_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set257_TrId54.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set38_TrId30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set232_TrId55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set60_TrId46.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set10_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set174_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set30_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set406_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set38_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set112_TrId30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set156_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set53_TrId40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set99_TrId65.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set43_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set13_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set51_TrId35.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set237_TrId58.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set108_TrId26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set17_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set85_TrId58.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set553_TrId111.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set50_TrId39.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set196_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set86_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set86_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set102_TrId26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set70_TrId50.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set33_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set112_TrId33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set82_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set49_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set103_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set322_TrId103.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set191_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set338_TrId114.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set192_TrId2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set27_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set213_TrId38.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set342_TrId118.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set391_TrId161.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set20_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set154_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set221_TrId45.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set51_TrId40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set15_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set424_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set188_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set75_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set157_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set215_TrId18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set21_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set352_TrId126.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set436_TrId30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set60_TrId47.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set115_TrId77.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set61_TrId47.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set20_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set16_TrId12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set52_TrId41.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set318_TrId100.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set253_TrId71.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set146_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set130_TrId86.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set217_TrId41.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set146_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set75_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set199_TrId26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set83_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set9_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set289_TrId80.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set79_TrId58.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set54_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set179_TrId13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set169_TrId3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set368_TrId140.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set204_TrId31.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set91_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set4_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set7_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set108_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set496_TrId65.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set11_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set175_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set10_TrId10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set28_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set332_TrId110.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set21_TrId19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set83_TrId7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set511_TrId79.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set351_TrId125.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set42_TrId2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set135_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set186_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set30_TrId20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set140_TrId8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set198_TrId25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set48_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set562_TrId119.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set91_TrId15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set157_TrId24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set525_TrId89.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set103_TrId69.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set85_TrId9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set200_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set148_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set32_TrId21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set238_TrId59.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set33_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set136_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set78_TrId5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set29_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set18_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set19_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set170_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set22_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set118_TrId79.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set45_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set114_TrId34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set134_TrId4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set191_TrId1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set92_TrId16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set132_TrId88.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set345_TrId121.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set296_TrId87.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set76_TrId6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set105_TrId29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set154_TrId14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I10.mat_Set112_TrId38.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set103_TrId27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set143_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set30_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set325_TrId104.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I28.mat_Set115_TrId36.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I34.mat_Set85_TrId11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set97_TrId22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I16.mat_Set566_TrId123.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set92_TrId17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set195_TrId23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set128_TrId47.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set132_TrId51.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurkat_I22.mat_Set6_TrId5.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">jurkat_I22.mat_Set87_TrId14.png</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>unsure</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>neg</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1195,22 +1186,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1237,7 +1212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1254,22 +1229,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,19 +1248,19 @@
   </sheetPr>
   <dimension ref="A1:I1231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H112" activeCellId="0" sqref="H112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.28515625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="7" max="7" width="4.18" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="8" max="9" width="7" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,9 +1284,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1340,9 +1297,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>372</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3475,8 +3430,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1"/>
+    <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
@@ -3851,10 +3808,10 @@
       <c r="A1231" s="1"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.51180555555555"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="377">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1136,6 +1136,21 @@
   </si>
   <si>
     <t xml:space="preserve">jurkat_I22.mat_Set87_TrId14.png</t>
+  </si>
+  <si>
+    <t>Mahdi</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>unsure</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="797">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1186,6 +1201,802 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1212,7 +2023,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="800">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1229,6 +2040,802 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,13 +2861,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7"/>
+    <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="6.6015625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" width="4.18" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="9" width="7" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +2880,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1286,7 +2895,9 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1299,7 +2910,9 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="756" t="s">
+        <v>373</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1312,7 +2925,9 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>374</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1325,7 +2940,9 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="12" t="s">
+        <v>375</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1338,7 +2955,9 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="14" t="s">
+        <v>373</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1351,7 +2970,9 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="16" t="s">
+        <v>373</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1364,2076 +2985,3165 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
+      <c r="D8" s="752" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="D9" s="758" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="D10" s="22" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="D11" s="24" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
+      <c r="D12" s="26" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="D13" s="28" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="D14" s="30" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="D15" s="32" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3"/>
+      <c r="D16" s="760" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
+      <c r="D17" s="36" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3"/>
+      <c r="D18" s="38" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3"/>
+      <c r="D19" s="40" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3"/>
+      <c r="D20" s="42" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="D21" s="44" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3"/>
+      <c r="D22" s="46" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3"/>
+      <c r="D23" s="48" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3"/>
+      <c r="D24" s="50" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3"/>
+      <c r="D25" s="52" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="3"/>
+      <c r="D26" s="54" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="3"/>
+      <c r="D27" s="56" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="3"/>
+      <c r="D28" s="58" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3"/>
+      <c r="D29" s="60" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3"/>
+      <c r="D30" s="762" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="D31" s="64" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3"/>
+      <c r="D32" s="66" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="3"/>
+      <c r="D33" s="68" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3"/>
+      <c r="D34" s="764" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="3"/>
+      <c r="D35" s="72" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="3"/>
+      <c r="D36" s="74" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="3"/>
+      <c r="D37" s="76" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="3"/>
+      <c r="D38" s="78" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="3"/>
+      <c r="D39" s="80" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="3"/>
+      <c r="D40" s="82" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="3"/>
+      <c r="D41" s="84" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3"/>
+      <c r="D42" s="86" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="3"/>
+      <c r="D43" s="88" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="3"/>
+      <c r="D44" s="90" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3"/>
+      <c r="D45" s="92" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="3"/>
+      <c r="D46" s="94" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
+      <c r="D47" s="96" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="3"/>
+      <c r="D48" s="98" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3"/>
+      <c r="D49" s="100" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3"/>
+      <c r="D50" s="102" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3"/>
+      <c r="D51" s="104" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3"/>
+      <c r="D52" s="106" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
+      <c r="D53" s="766" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
+      <c r="D54" s="110" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
+      <c r="D55" s="112" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
+      <c r="D56" s="114" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
+      <c r="D57" s="116" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
+      <c r="D58" s="118" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
+      <c r="D59" s="120" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
+      <c r="D60" s="122" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
+      <c r="D61" s="124" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
+      <c r="D62" s="126" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
+      <c r="D63" s="128" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="3"/>
+      <c r="D64" s="130" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="3"/>
+      <c r="D65" s="132" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="3"/>
+      <c r="D66" s="134" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="3"/>
+      <c r="D67" s="136" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="3"/>
+      <c r="D68" s="138" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="3"/>
+      <c r="D69" s="140" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="3"/>
+      <c r="D70" s="142" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="3"/>
+      <c r="D71" s="144" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
+      <c r="D72" s="146" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="3"/>
+      <c r="D73" s="148" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="3"/>
+      <c r="D74" s="150" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="3"/>
+      <c r="D75" s="152" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="3"/>
+      <c r="D76" s="154" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="3"/>
+      <c r="D77" s="156" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="3"/>
+      <c r="D78" s="158" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="3"/>
+      <c r="D79" s="160" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="3"/>
+      <c r="D80" s="162" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="3"/>
+      <c r="D81" s="164" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="3"/>
+      <c r="D82" s="166" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="3"/>
+      <c r="D83" s="168" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="3"/>
+      <c r="D84" s="170" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="3"/>
+      <c r="D85" s="172" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="3"/>
+      <c r="D86" s="174" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="3"/>
+      <c r="D87" s="176" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="3"/>
+      <c r="D88" s="178" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="3"/>
+      <c r="D89" s="180" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="3"/>
+      <c r="D90" s="182" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="3"/>
+      <c r="D91" s="184" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="3"/>
+      <c r="D92" s="186" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="3"/>
+      <c r="D93" s="768" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="3"/>
+      <c r="D94" s="190" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="3"/>
+      <c r="D95" s="192" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="3"/>
+      <c r="D96" s="194" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="3"/>
+      <c r="D97" s="196" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="3"/>
+      <c r="D98" s="198" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="3"/>
+      <c r="D99" s="200" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="3"/>
+      <c r="D100" s="202" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="3"/>
+      <c r="D101" s="204" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="3"/>
+      <c r="D102" s="770" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="3"/>
+      <c r="D103" s="208" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="3"/>
+      <c r="D104" s="210" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="3"/>
+      <c r="D105" s="212" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="3"/>
+      <c r="D106" s="214" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="3"/>
+      <c r="D107" s="216" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="3"/>
+      <c r="D108" s="218" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="3"/>
+      <c r="D109" s="220" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="3"/>
+      <c r="D110" s="222" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="3"/>
+      <c r="D111" s="224" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="3"/>
+      <c r="D112" s="226" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="3"/>
+      <c r="D113" s="228" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="3"/>
+      <c r="D114" s="230" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="3"/>
+      <c r="D115" s="232" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="3"/>
+      <c r="D116" s="234" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="3"/>
+      <c r="D117" s="236" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="3"/>
+      <c r="D118" s="238" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="3"/>
+      <c r="D119" s="240" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="3"/>
+      <c r="D120" s="242" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="3"/>
+      <c r="D121" s="244" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="3"/>
+      <c r="D122" s="246" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="3"/>
+      <c r="D123" s="772" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="3"/>
+      <c r="D124" s="250" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="3"/>
+      <c r="D125" s="252" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="3"/>
+      <c r="D126" s="774" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="3"/>
+      <c r="D127" s="256" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="3"/>
+      <c r="D128" s="258" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="3"/>
+      <c r="D129" s="260" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="3"/>
+      <c r="D130" s="776" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="3"/>
+      <c r="D131" s="264" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="3"/>
+      <c r="D132" s="266" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="3"/>
+      <c r="D133" s="268" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="3"/>
+      <c r="D134" s="270" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="3"/>
+      <c r="D135" s="272" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="3"/>
+      <c r="D136" s="274" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="3"/>
+      <c r="D137" s="276" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="3"/>
+      <c r="D138" s="278" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="3"/>
+      <c r="D139" s="280" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="3"/>
+      <c r="D140" s="282" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B141" s="3"/>
+      <c r="D141" s="284" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="3"/>
+      <c r="D142" s="286" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="3"/>
+      <c r="D143" s="288" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="3"/>
+      <c r="D144" s="290" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="3"/>
+      <c r="D145" s="778" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="3"/>
+      <c r="D146" s="294" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="3"/>
+      <c r="D147" s="296" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="3"/>
+      <c r="D148" s="298" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="3"/>
+      <c r="D149" s="300" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="3"/>
+      <c r="D150" s="302" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="3"/>
+      <c r="D151" s="304" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="3"/>
+      <c r="D152" s="306" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="3"/>
+      <c r="D153" s="308" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="3"/>
+      <c r="D154" s="310" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="3"/>
+      <c r="D155" s="780" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="3"/>
+      <c r="D156" s="316" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="3"/>
+      <c r="D157" s="318" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="3"/>
+      <c r="D158" s="320" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="3"/>
+      <c r="D159" s="322" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="3"/>
+      <c r="D160" s="324" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="3"/>
+      <c r="D161" s="326" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="3"/>
+      <c r="D162" s="328" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="3"/>
+      <c r="D163" s="330" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="3"/>
+      <c r="D164" s="332" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="3"/>
+      <c r="D165" s="782" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="3"/>
+      <c r="D166" s="336" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B167" s="3"/>
+      <c r="D167" s="338" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="3"/>
+      <c r="D168" s="340" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="3"/>
+      <c r="D169" s="342" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="3"/>
+      <c r="D170" s="344" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="3"/>
+      <c r="D171" s="346" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="3"/>
+      <c r="D172" s="348" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="3"/>
+      <c r="D173" s="350" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="3"/>
+      <c r="D174" s="352" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="3"/>
+      <c r="D175" s="354" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="3"/>
+      <c r="D176" s="356" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="3"/>
+      <c r="D177" s="358" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="3"/>
+      <c r="D178" s="360" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="3"/>
+      <c r="D179" s="784" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="3"/>
+      <c r="D180" s="364" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="3"/>
+      <c r="D181" s="366" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="3"/>
+      <c r="D182" s="368" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="3"/>
+      <c r="D183" s="370" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="3"/>
+      <c r="D184" s="372" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="3"/>
+      <c r="D185" s="374" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="3"/>
+      <c r="D186" s="376" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B187" s="3"/>
+      <c r="D187" s="786" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="3"/>
+      <c r="D188" s="380" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="3"/>
+      <c r="D189" s="382" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="3"/>
+      <c r="D190" s="384" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="3"/>
+      <c r="D191" s="386" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="3"/>
+      <c r="D192" s="388" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="3"/>
+      <c r="D193" s="390" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B194" s="3"/>
+      <c r="D194" s="392" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="3"/>
+      <c r="D195" s="394" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="3"/>
+      <c r="D196" s="396" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B197" s="3"/>
+      <c r="D197" s="398" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="3"/>
+      <c r="D198" s="400" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B199" s="3"/>
+      <c r="D199" s="402" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B200" s="3"/>
+      <c r="D200" s="404" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="3"/>
+      <c r="D201" s="406" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="3"/>
+      <c r="D202" s="408" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="3"/>
+      <c r="D203" s="410" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="3"/>
+      <c r="D204" s="412" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B205" s="3"/>
+      <c r="D205" s="414" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B206" s="3"/>
+      <c r="D206" s="416" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="3"/>
+      <c r="D207" s="418" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B208" s="3"/>
+      <c r="D208" s="420" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="3"/>
+      <c r="D209" s="422" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B210" s="3"/>
+      <c r="D210" s="424" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B211" s="3"/>
+      <c r="D211" s="426" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="3"/>
+      <c r="D212" s="428" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B213" s="3"/>
+      <c r="D213" s="430" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="3"/>
+      <c r="D214" s="432" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B215" s="3"/>
+      <c r="D215" s="434" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B216" s="3"/>
+      <c r="D216" s="436" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B217" s="3"/>
+      <c r="D217" s="438" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B218" s="3"/>
+      <c r="D218" s="440" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B219" s="3"/>
+      <c r="D219" s="442" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B220" s="3"/>
+      <c r="D220" s="788" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="3"/>
+      <c r="D221" s="446" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B222" s="3"/>
+      <c r="D222" s="448" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B223" s="3"/>
+      <c r="D223" s="450" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B224" s="3"/>
+      <c r="D224" s="452" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B225" s="3"/>
+      <c r="D225" s="454" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B226" s="3"/>
+      <c r="D226" s="456" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B227" s="3"/>
+      <c r="D227" s="458" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B228" s="3"/>
+      <c r="D228" s="460" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B229" s="3"/>
+      <c r="D229" s="462" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B230" s="3"/>
+      <c r="D230" s="464" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B231" s="3"/>
+      <c r="D231" s="466" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B232" s="3"/>
+      <c r="D232" s="468" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B233" s="3"/>
+      <c r="D233" s="470" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B234" s="3"/>
+      <c r="D234" s="472" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B235" s="3"/>
+      <c r="D235" s="474" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B236" s="3"/>
+      <c r="D236" s="476" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="3"/>
+      <c r="D237" s="790" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="3"/>
+      <c r="D238" s="480" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="3"/>
+      <c r="D239" s="482" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B240" s="3"/>
+      <c r="D240" s="484" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="3"/>
+      <c r="D241" s="486" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B242" s="3"/>
+      <c r="D242" s="488" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="3"/>
+      <c r="D243" s="490" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B244" s="3"/>
+      <c r="D244" s="492" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="3"/>
+      <c r="D245" s="494" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="3"/>
+      <c r="D246" s="496" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B247" s="3"/>
+      <c r="D247" s="498" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B248" s="3"/>
+      <c r="D248" s="500" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B249" s="3"/>
+      <c r="D249" s="502" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B250" s="3"/>
+      <c r="D250" s="504" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B251" s="3"/>
+      <c r="D251" s="506" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B252" s="3"/>
+      <c r="D252" s="508" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B253" s="3"/>
+      <c r="D253" s="510" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B254" s="3"/>
+      <c r="D254" s="512" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B255" s="3"/>
+      <c r="D255" s="514" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B256" s="3"/>
+      <c r="D256" s="516" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B257" s="3"/>
+      <c r="D257" s="518" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B258" s="3"/>
+      <c r="D258" s="520" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B259" s="3"/>
+      <c r="D259" s="522" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B260" s="3"/>
+      <c r="D260" s="524" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B261" s="3"/>
+      <c r="D261" s="526" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B262" s="3"/>
+      <c r="D262" s="528" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B263" s="3"/>
+      <c r="D263" s="530" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B264" s="3"/>
+      <c r="D264" s="532" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B265" s="3"/>
+      <c r="D265" s="534" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B266" s="3"/>
+      <c r="D266" s="536" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B267" s="3"/>
+      <c r="D267" s="538" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B268" s="3"/>
+      <c r="D268" s="540" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="D269" s="542" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="D270" s="544" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="D271" s="546" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="D272" s="548" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="D273" s="554" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="D274" s="556" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="D275" s="558" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="D276" s="792" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="D277" s="562" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="D278" s="564" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="D279" s="566" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="D280" s="568" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="D281" s="570" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="D282" s="572" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="D283" s="574" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="D284" s="576" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="D285" s="578" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="D286" s="580" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="D287" s="582" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="D288" s="584" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="D289" s="586" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="D290" s="588" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="D291" s="590" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D292" s="794" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="D293" s="594" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="D294" s="596" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="D295" s="796" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="D296" s="600" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="D297" s="798" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="D298" s="604" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="D299" s="606" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="D300" s="608" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="D301" s="610" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="D302" s="612" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="D303" s="614" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="D304" s="616" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="D305" s="618" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="D306" s="620" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="D307" s="622" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="D308" s="624" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="D309" s="626" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="D310" s="628" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="D311" s="630" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="D312" s="632" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="D313" s="634" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="D314" s="636" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="D315" s="638" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="D316" s="640" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="D317" s="642" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="D318" s="644" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="D319" s="646" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="D320" s="648" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="D321" s="650" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="D322" s="652" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="D323" s="654" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="D324" s="656" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="D325" s="658" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="D326" s="660" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D327" s="662" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="D328" s="664" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="D329" s="666" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="D330" s="668" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="D331" s="670" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="D332" s="672" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="D333" s="674" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="D334" s="676" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="D335" s="678" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="D336" s="680" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="D337" s="682" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="D338" s="684" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="D339" s="686" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="D340" s="688" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="D341" s="690" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="D342" s="692" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="D343" s="694" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="D344" s="696" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="D345" s="698" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="D346" s="700" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="D347" s="702" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="D348" s="704" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="D349" s="706" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="D350" s="708" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="D351" s="710" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="D352" s="712" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="D353" s="714" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="D354" s="716" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="D355" s="718" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="D356" s="720" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="D357" s="722" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="D358" s="724" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="D359" s="726" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="D360" s="728" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="D361" s="730" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="D362" s="732" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="D363" s="734" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="D364" s="736" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="D365" s="738" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="D366" s="740" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="D367" s="742" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="D368" s="744" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="D369" s="746" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="D370" s="748" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
@@ -3808,10 +6518,10 @@
       <c r="A1231" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.51180555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="376">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1136,6 +1136,18 @@
   </si>
   <si>
     <t xml:space="preserve">jurkat_I22.mat_Set87_TrId14.png</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>unsure</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="45">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1186,6 +1198,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1212,7 +1268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1229,6 +1285,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,13 +1354,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7"/>
+    <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="6.7578125" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" width="4.18" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="9" width="7" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +1385,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="46" t="s">
+        <v>372</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1298,7 +1400,9 @@
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1311,7 +1415,9 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1324,7 +1430,9 @@
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1337,7 +1445,9 @@
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1350,7 +1460,9 @@
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1363,91 +1475,135 @@
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="16" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="C9" s="18" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" s="20" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="C11" s="22" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
+      <c r="C12" s="24" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="C13" s="26" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="28" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="30" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3"/>
+      <c r="C16" s="32" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
+      <c r="C17" s="34" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3"/>
+      <c r="C18" s="36" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3"/>
+      <c r="C19" s="38" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3"/>
+      <c r="C20" s="40" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="C21" s="42" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3"/>
+      <c r="C22" s="44" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -3808,10 +3964,10 @@
       <c r="A1231" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.51180555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="377">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1193,7 +1193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="797">
+  <borders count="899">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1201,6 +1201,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -2023,7 +2125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="800">
+  <cellXfs count="902">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2836,6 +2938,108 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2862,7 +3066,7 @@
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.28515625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="3" max="3" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="4" max="4" width="6.6015625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -2893,7 +3097,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="800" t="s">
+        <v>373</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6" t="s">
         <v>373</v>
@@ -2908,7 +3114,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="802" t="s">
+        <v>375</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="756" t="s">
         <v>373</v>
@@ -2923,7 +3131,9 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="804" t="s">
+        <v>374</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
         <v>374</v>
@@ -2938,7 +3148,9 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="806" t="s">
+        <v>375</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="12" t="s">
         <v>375</v>
@@ -2953,7 +3165,9 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="808" t="s">
+        <v>375</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
         <v>373</v>
@@ -2968,7 +3182,9 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="810" t="s">
+        <v>376</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="16" t="s">
         <v>373</v>
@@ -2983,7 +3199,9 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="812" t="s">
+        <v>375</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="752" t="s">
         <v>373</v>
@@ -2993,7 +3211,9 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="814" t="s">
+        <v>373</v>
+      </c>
       <c r="D9" s="758" t="s">
         <v>373</v>
       </c>
@@ -3002,7 +3222,9 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="816" t="s">
+        <v>375</v>
+      </c>
       <c r="D10" s="22" t="s">
         <v>375</v>
       </c>
@@ -3011,7 +3233,9 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="818" t="s">
+        <v>373</v>
+      </c>
       <c r="D11" s="24" t="s">
         <v>373</v>
       </c>
@@ -3020,7 +3244,9 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="820" t="s">
+        <v>373</v>
+      </c>
       <c r="D12" s="26" t="s">
         <v>373</v>
       </c>
@@ -3029,7 +3255,9 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="822" t="s">
+        <v>375</v>
+      </c>
       <c r="D13" s="28" t="s">
         <v>375</v>
       </c>
@@ -3038,7 +3266,9 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="824" t="s">
+        <v>373</v>
+      </c>
       <c r="D14" s="30" t="s">
         <v>373</v>
       </c>
@@ -3047,7 +3277,9 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="826" t="s">
+        <v>375</v>
+      </c>
       <c r="D15" s="32" t="s">
         <v>375</v>
       </c>
@@ -3056,7 +3288,9 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="828" t="s">
+        <v>374</v>
+      </c>
       <c r="D16" s="760" t="s">
         <v>374</v>
       </c>
@@ -3065,7 +3299,9 @@
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="830" t="s">
+        <v>375</v>
+      </c>
       <c r="D17" s="36" t="s">
         <v>375</v>
       </c>
@@ -3074,7 +3310,9 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="832" t="s">
+        <v>373</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>373</v>
       </c>
@@ -3083,7 +3321,9 @@
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="834" t="s">
+        <v>373</v>
+      </c>
       <c r="D19" s="40" t="s">
         <v>373</v>
       </c>
@@ -3092,7 +3332,9 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="836" t="s">
+        <v>375</v>
+      </c>
       <c r="D20" s="42" t="s">
         <v>375</v>
       </c>
@@ -3101,7 +3343,9 @@
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="838" t="s">
+        <v>374</v>
+      </c>
       <c r="D21" s="44" t="s">
         <v>374</v>
       </c>
@@ -3110,7 +3354,9 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="840" t="s">
+        <v>375</v>
+      </c>
       <c r="D22" s="46" t="s">
         <v>375</v>
       </c>
@@ -3119,7 +3365,9 @@
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="842" t="s">
+        <v>375</v>
+      </c>
       <c r="D23" s="48" t="s">
         <v>375</v>
       </c>
@@ -3128,7 +3376,9 @@
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="844" t="s">
+        <v>375</v>
+      </c>
       <c r="D24" s="50" t="s">
         <v>375</v>
       </c>
@@ -3137,7 +3387,9 @@
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="846" t="s">
+        <v>373</v>
+      </c>
       <c r="D25" s="52" t="s">
         <v>373</v>
       </c>
@@ -3146,7 +3398,9 @@
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="848" t="s">
+        <v>373</v>
+      </c>
       <c r="D26" s="54" t="s">
         <v>373</v>
       </c>
@@ -3155,7 +3409,9 @@
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="850" t="s">
+        <v>373</v>
+      </c>
       <c r="D27" s="56" t="s">
         <v>373</v>
       </c>
@@ -3164,7 +3420,9 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="852" t="s">
+        <v>375</v>
+      </c>
       <c r="D28" s="58" t="s">
         <v>375</v>
       </c>
@@ -3173,7 +3431,9 @@
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="854" t="s">
+        <v>375</v>
+      </c>
       <c r="D29" s="60" t="s">
         <v>375</v>
       </c>
@@ -3182,7 +3442,9 @@
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="856" t="s">
+        <v>376</v>
+      </c>
       <c r="D30" s="762" t="s">
         <v>375</v>
       </c>
@@ -3191,7 +3453,9 @@
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="858" t="s">
+        <v>374</v>
+      </c>
       <c r="D31" s="64" t="s">
         <v>373</v>
       </c>
@@ -3200,7 +3464,9 @@
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="860" t="s">
+        <v>373</v>
+      </c>
       <c r="D32" s="66" t="s">
         <v>373</v>
       </c>
@@ -3209,7 +3475,9 @@
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="862" t="s">
+        <v>373</v>
+      </c>
       <c r="D33" s="68" t="s">
         <v>373</v>
       </c>
@@ -3218,7 +3486,9 @@
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="864" t="s">
+        <v>375</v>
+      </c>
       <c r="D34" s="764" t="s">
         <v>376</v>
       </c>
@@ -3227,7 +3497,9 @@
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="866" t="s">
+        <v>375</v>
+      </c>
       <c r="D35" s="72" t="s">
         <v>375</v>
       </c>
@@ -3236,7 +3508,9 @@
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="868" t="s">
+        <v>375</v>
+      </c>
       <c r="D36" s="74" t="s">
         <v>375</v>
       </c>
@@ -3245,7 +3519,9 @@
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="870" t="s">
+        <v>375</v>
+      </c>
       <c r="D37" s="76" t="s">
         <v>373</v>
       </c>
@@ -3254,7 +3530,9 @@
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="872" t="s">
+        <v>375</v>
+      </c>
       <c r="D38" s="78" t="s">
         <v>373</v>
       </c>
@@ -3263,7 +3541,9 @@
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="874" t="s">
+        <v>375</v>
+      </c>
       <c r="D39" s="80" t="s">
         <v>375</v>
       </c>
@@ -3272,7 +3552,9 @@
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="876" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" s="82" t="s">
         <v>375</v>
       </c>
@@ -3281,7 +3563,9 @@
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="878" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" s="84" t="s">
         <v>375</v>
       </c>
@@ -3290,7 +3574,9 @@
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="880" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" s="86" t="s">
         <v>375</v>
       </c>
@@ -3299,7 +3585,9 @@
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="882" t="s">
+        <v>374</v>
+      </c>
       <c r="D43" s="88" t="s">
         <v>373</v>
       </c>
@@ -3308,7 +3596,9 @@
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="884" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" s="90" t="s">
         <v>375</v>
       </c>
@@ -3317,7 +3607,9 @@
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="886" t="s">
+        <v>374</v>
+      </c>
       <c r="D45" s="92" t="s">
         <v>374</v>
       </c>
@@ -3326,7 +3618,9 @@
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="888" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" s="94" t="s">
         <v>373</v>
       </c>
@@ -3335,7 +3629,9 @@
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="890" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" s="96" t="s">
         <v>374</v>
       </c>
@@ -3344,7 +3640,9 @@
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="892" t="s">
+        <v>373</v>
+      </c>
       <c r="D48" s="98" t="s">
         <v>373</v>
       </c>
@@ -3353,7 +3651,9 @@
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="894" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" s="100" t="s">
         <v>375</v>
       </c>
@@ -3362,7 +3662,9 @@
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="896" t="s">
+        <v>375</v>
+      </c>
       <c r="D50" s="102" t="s">
         <v>375</v>
       </c>
@@ -3371,7 +3673,9 @@
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="898" t="s">
+        <v>375</v>
+      </c>
       <c r="D51" s="104" t="s">
         <v>375</v>
       </c>
@@ -3380,7 +3684,9 @@
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="900" t="s">
+        <v>374</v>
+      </c>
       <c r="D52" s="106" t="s">
         <v>376</v>
       </c>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="377">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1193,7 +1193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="797">
+  <borders count="1543">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1201,6 +1201,752 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -2023,7 +2769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="800">
+  <cellXfs count="1546">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2836,6 +3582,752 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1542" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2863,7 +4355,7 @@
   <cols>
     <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="6.7578125" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="4" max="4" width="6.6015625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="7" max="7" width="4.18" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -2894,7 +4386,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="800" t="s">
+        <v>373</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>373</v>
       </c>
@@ -2909,7 +4403,9 @@
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="802" t="s">
+        <v>375</v>
+      </c>
       <c r="D3" s="756" t="s">
         <v>373</v>
       </c>
@@ -2924,7 +4420,9 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="804" t="s">
+        <v>374</v>
+      </c>
       <c r="D4" s="10" t="s">
         <v>374</v>
       </c>
@@ -2939,7 +4437,9 @@
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="806" t="s">
+        <v>375</v>
+      </c>
       <c r="D5" s="12" t="s">
         <v>375</v>
       </c>
@@ -2954,7 +4454,9 @@
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="808" t="s">
+        <v>375</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>373</v>
       </c>
@@ -2969,7 +4471,9 @@
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="810" t="s">
+        <v>376</v>
+      </c>
       <c r="D7" s="16" t="s">
         <v>373</v>
       </c>
@@ -2984,7 +4488,9 @@
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="812" t="s">
+        <v>375</v>
+      </c>
       <c r="D8" s="752" t="s">
         <v>373</v>
       </c>
@@ -2994,6 +4500,9 @@
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="C9" s="814" t="s">
+        <v>373</v>
+      </c>
       <c r="D9" s="758" t="s">
         <v>373</v>
       </c>
@@ -3003,6 +4512,9 @@
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" s="816" t="s">
+        <v>375</v>
+      </c>
       <c r="D10" s="22" t="s">
         <v>375</v>
       </c>
@@ -3012,6 +4524,9 @@
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="C11" s="818" t="s">
+        <v>373</v>
+      </c>
       <c r="D11" s="24" t="s">
         <v>373</v>
       </c>
@@ -3021,6 +4536,9 @@
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
+      <c r="C12" s="820" t="s">
+        <v>373</v>
+      </c>
       <c r="D12" s="26" t="s">
         <v>373</v>
       </c>
@@ -3030,6 +4548,9 @@
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="C13" s="822" t="s">
+        <v>375</v>
+      </c>
       <c r="D13" s="28" t="s">
         <v>375</v>
       </c>
@@ -3039,6 +4560,9 @@
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="824" t="s">
+        <v>373</v>
+      </c>
       <c r="D14" s="30" t="s">
         <v>373</v>
       </c>
@@ -3048,6 +4572,9 @@
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="826" t="s">
+        <v>375</v>
+      </c>
       <c r="D15" s="32" t="s">
         <v>375</v>
       </c>
@@ -3057,6 +4584,9 @@
         <v>17</v>
       </c>
       <c r="B16" s="3"/>
+      <c r="C16" s="828" t="s">
+        <v>374</v>
+      </c>
       <c r="D16" s="760" t="s">
         <v>374</v>
       </c>
@@ -3066,6 +4596,9 @@
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
+      <c r="C17" s="830" t="s">
+        <v>375</v>
+      </c>
       <c r="D17" s="36" t="s">
         <v>375</v>
       </c>
@@ -3075,6 +4608,9 @@
         <v>19</v>
       </c>
       <c r="B18" s="3"/>
+      <c r="C18" s="832" t="s">
+        <v>375</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>373</v>
       </c>
@@ -3084,6 +4620,9 @@
         <v>20</v>
       </c>
       <c r="B19" s="3"/>
+      <c r="C19" s="834" t="s">
+        <v>376</v>
+      </c>
       <c r="D19" s="40" t="s">
         <v>373</v>
       </c>
@@ -3093,6 +4632,9 @@
         <v>21</v>
       </c>
       <c r="B20" s="3"/>
+      <c r="C20" s="836" t="s">
+        <v>375</v>
+      </c>
       <c r="D20" s="42" t="s">
         <v>375</v>
       </c>
@@ -3102,6 +4644,9 @@
         <v>22</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="C21" s="838" t="s">
+        <v>374</v>
+      </c>
       <c r="D21" s="44" t="s">
         <v>374</v>
       </c>
@@ -3111,6 +4656,9 @@
         <v>23</v>
       </c>
       <c r="B22" s="3"/>
+      <c r="C22" s="840" t="s">
+        <v>375</v>
+      </c>
       <c r="D22" s="46" t="s">
         <v>375</v>
       </c>
@@ -3120,6 +4668,9 @@
         <v>24</v>
       </c>
       <c r="B23" s="3"/>
+      <c r="C23" s="842" t="s">
+        <v>375</v>
+      </c>
       <c r="D23" s="48" t="s">
         <v>375</v>
       </c>
@@ -3129,6 +4680,9 @@
         <v>25</v>
       </c>
       <c r="B24" s="3"/>
+      <c r="C24" s="844" t="s">
+        <v>375</v>
+      </c>
       <c r="D24" s="50" t="s">
         <v>375</v>
       </c>
@@ -3138,6 +4692,9 @@
         <v>26</v>
       </c>
       <c r="B25" s="3"/>
+      <c r="C25" s="846" t="s">
+        <v>373</v>
+      </c>
       <c r="D25" s="52" t="s">
         <v>373</v>
       </c>
@@ -3147,6 +4704,9 @@
         <v>27</v>
       </c>
       <c r="B26" s="3"/>
+      <c r="C26" s="848" t="s">
+        <v>373</v>
+      </c>
       <c r="D26" s="54" t="s">
         <v>373</v>
       </c>
@@ -3156,6 +4716,9 @@
         <v>28</v>
       </c>
       <c r="B27" s="3"/>
+      <c r="C27" s="850" t="s">
+        <v>373</v>
+      </c>
       <c r="D27" s="56" t="s">
         <v>373</v>
       </c>
@@ -3165,6 +4728,9 @@
         <v>29</v>
       </c>
       <c r="B28" s="3"/>
+      <c r="C28" s="852" t="s">
+        <v>375</v>
+      </c>
       <c r="D28" s="58" t="s">
         <v>375</v>
       </c>
@@ -3174,6 +4740,9 @@
         <v>30</v>
       </c>
       <c r="B29" s="3"/>
+      <c r="C29" s="854" t="s">
+        <v>375</v>
+      </c>
       <c r="D29" s="60" t="s">
         <v>375</v>
       </c>
@@ -3183,6 +4752,9 @@
         <v>31</v>
       </c>
       <c r="B30" s="3"/>
+      <c r="C30" s="856" t="s">
+        <v>373</v>
+      </c>
       <c r="D30" s="762" t="s">
         <v>375</v>
       </c>
@@ -3192,6 +4764,9 @@
         <v>32</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="C31" s="858" t="s">
+        <v>374</v>
+      </c>
       <c r="D31" s="64" t="s">
         <v>373</v>
       </c>
@@ -3201,6 +4776,9 @@
         <v>33</v>
       </c>
       <c r="B32" s="3"/>
+      <c r="C32" s="860" t="s">
+        <v>373</v>
+      </c>
       <c r="D32" s="66" t="s">
         <v>373</v>
       </c>
@@ -3210,6 +4788,9 @@
         <v>34</v>
       </c>
       <c r="B33" s="3"/>
+      <c r="C33" s="862" t="s">
+        <v>373</v>
+      </c>
       <c r="D33" s="68" t="s">
         <v>373</v>
       </c>
@@ -3219,6 +4800,9 @@
         <v>35</v>
       </c>
       <c r="B34" s="3"/>
+      <c r="C34" s="864" t="s">
+        <v>375</v>
+      </c>
       <c r="D34" s="764" t="s">
         <v>376</v>
       </c>
@@ -3228,6 +4812,9 @@
         <v>36</v>
       </c>
       <c r="B35" s="3"/>
+      <c r="C35" s="866" t="s">
+        <v>375</v>
+      </c>
       <c r="D35" s="72" t="s">
         <v>375</v>
       </c>
@@ -3237,6 +4824,9 @@
         <v>37</v>
       </c>
       <c r="B36" s="3"/>
+      <c r="C36" s="868" t="s">
+        <v>375</v>
+      </c>
       <c r="D36" s="74" t="s">
         <v>375</v>
       </c>
@@ -3246,6 +4836,9 @@
         <v>38</v>
       </c>
       <c r="B37" s="3"/>
+      <c r="C37" s="870" t="s">
+        <v>375</v>
+      </c>
       <c r="D37" s="76" t="s">
         <v>373</v>
       </c>
@@ -3255,6 +4848,9 @@
         <v>39</v>
       </c>
       <c r="B38" s="3"/>
+      <c r="C38" s="872" t="s">
+        <v>375</v>
+      </c>
       <c r="D38" s="78" t="s">
         <v>373</v>
       </c>
@@ -3264,6 +4860,9 @@
         <v>40</v>
       </c>
       <c r="B39" s="3"/>
+      <c r="C39" s="874" t="s">
+        <v>375</v>
+      </c>
       <c r="D39" s="80" t="s">
         <v>375</v>
       </c>
@@ -3273,6 +4872,9 @@
         <v>41</v>
       </c>
       <c r="B40" s="3"/>
+      <c r="C40" s="876" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" s="82" t="s">
         <v>375</v>
       </c>
@@ -3282,6 +4884,9 @@
         <v>42</v>
       </c>
       <c r="B41" s="3"/>
+      <c r="C41" s="878" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" s="84" t="s">
         <v>375</v>
       </c>
@@ -3291,6 +4896,9 @@
         <v>43</v>
       </c>
       <c r="B42" s="3"/>
+      <c r="C42" s="880" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" s="86" t="s">
         <v>375</v>
       </c>
@@ -3300,6 +4908,9 @@
         <v>44</v>
       </c>
       <c r="B43" s="3"/>
+      <c r="C43" s="882" t="s">
+        <v>374</v>
+      </c>
       <c r="D43" s="88" t="s">
         <v>373</v>
       </c>
@@ -3309,6 +4920,9 @@
         <v>45</v>
       </c>
       <c r="B44" s="3"/>
+      <c r="C44" s="884" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" s="90" t="s">
         <v>375</v>
       </c>
@@ -3318,6 +4932,9 @@
         <v>46</v>
       </c>
       <c r="B45" s="3"/>
+      <c r="C45" s="886" t="s">
+        <v>374</v>
+      </c>
       <c r="D45" s="92" t="s">
         <v>374</v>
       </c>
@@ -3327,6 +4944,9 @@
         <v>47</v>
       </c>
       <c r="B46" s="3"/>
+      <c r="C46" s="888" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" s="94" t="s">
         <v>373</v>
       </c>
@@ -3336,6 +4956,9 @@
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
+      <c r="C47" s="890" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" s="96" t="s">
         <v>374</v>
       </c>
@@ -3345,6 +4968,9 @@
         <v>49</v>
       </c>
       <c r="B48" s="3"/>
+      <c r="C48" s="892" t="s">
+        <v>375</v>
+      </c>
       <c r="D48" s="98" t="s">
         <v>373</v>
       </c>
@@ -3354,6 +4980,9 @@
         <v>50</v>
       </c>
       <c r="B49" s="3"/>
+      <c r="C49" s="894" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" s="100" t="s">
         <v>375</v>
       </c>
@@ -3363,6 +4992,9 @@
         <v>51</v>
       </c>
       <c r="B50" s="3"/>
+      <c r="C50" s="896" t="s">
+        <v>375</v>
+      </c>
       <c r="D50" s="102" t="s">
         <v>375</v>
       </c>
@@ -3372,6 +5004,9 @@
         <v>52</v>
       </c>
       <c r="B51" s="3"/>
+      <c r="C51" s="898" t="s">
+        <v>375</v>
+      </c>
       <c r="D51" s="104" t="s">
         <v>375</v>
       </c>
@@ -3381,6 +5016,9 @@
         <v>53</v>
       </c>
       <c r="B52" s="3"/>
+      <c r="C52" s="900" t="s">
+        <v>374</v>
+      </c>
       <c r="D52" s="106" t="s">
         <v>376</v>
       </c>
@@ -3390,6 +5028,9 @@
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
+      <c r="C53" s="902" t="s">
+        <v>373</v>
+      </c>
       <c r="D53" s="766" t="s">
         <v>373</v>
       </c>
@@ -3399,6 +5040,9 @@
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
+      <c r="C54" s="904" t="s">
+        <v>373</v>
+      </c>
       <c r="D54" s="110" t="s">
         <v>373</v>
       </c>
@@ -3408,6 +5052,9 @@
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
+      <c r="C55" s="906" t="s">
+        <v>373</v>
+      </c>
       <c r="D55" s="112" t="s">
         <v>373</v>
       </c>
@@ -3417,6 +5064,9 @@
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
+      <c r="C56" s="908" t="s">
+        <v>373</v>
+      </c>
       <c r="D56" s="114" t="s">
         <v>373</v>
       </c>
@@ -3426,6 +5076,9 @@
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
+      <c r="C57" s="910" t="s">
+        <v>374</v>
+      </c>
       <c r="D57" s="116" t="s">
         <v>374</v>
       </c>
@@ -3435,6 +5088,9 @@
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
+      <c r="C58" s="912" t="s">
+        <v>375</v>
+      </c>
       <c r="D58" s="118" t="s">
         <v>375</v>
       </c>
@@ -3444,6 +5100,9 @@
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
+      <c r="C59" s="914" t="s">
+        <v>373</v>
+      </c>
       <c r="D59" s="120" t="s">
         <v>373</v>
       </c>
@@ -3453,6 +5112,9 @@
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
+      <c r="C60" s="916" t="s">
+        <v>373</v>
+      </c>
       <c r="D60" s="122" t="s">
         <v>373</v>
       </c>
@@ -3462,6 +5124,9 @@
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
+      <c r="C61" s="918" t="s">
+        <v>373</v>
+      </c>
       <c r="D61" s="124" t="s">
         <v>373</v>
       </c>
@@ -3471,6 +5136,9 @@
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
+      <c r="C62" s="920" t="s">
+        <v>375</v>
+      </c>
       <c r="D62" s="126" t="s">
         <v>375</v>
       </c>
@@ -3480,6 +5148,9 @@
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
+      <c r="C63" s="922" t="s">
+        <v>375</v>
+      </c>
       <c r="D63" s="128" t="s">
         <v>373</v>
       </c>
@@ -3489,6 +5160,9 @@
         <v>65</v>
       </c>
       <c r="B64" s="3"/>
+      <c r="C64" s="924" t="s">
+        <v>375</v>
+      </c>
       <c r="D64" s="130" t="s">
         <v>375</v>
       </c>
@@ -3498,6 +5172,9 @@
         <v>66</v>
       </c>
       <c r="B65" s="3"/>
+      <c r="C65" s="926" t="s">
+        <v>375</v>
+      </c>
       <c r="D65" s="132" t="s">
         <v>375</v>
       </c>
@@ -3507,6 +5184,9 @@
         <v>67</v>
       </c>
       <c r="B66" s="3"/>
+      <c r="C66" s="928" t="s">
+        <v>373</v>
+      </c>
       <c r="D66" s="134" t="s">
         <v>373</v>
       </c>
@@ -3516,6 +5196,9 @@
         <v>68</v>
       </c>
       <c r="B67" s="3"/>
+      <c r="C67" s="930" t="s">
+        <v>376</v>
+      </c>
       <c r="D67" s="136" t="s">
         <v>373</v>
       </c>
@@ -3525,6 +5208,9 @@
         <v>69</v>
       </c>
       <c r="B68" s="3"/>
+      <c r="C68" s="932" t="s">
+        <v>375</v>
+      </c>
       <c r="D68" s="138" t="s">
         <v>376</v>
       </c>
@@ -3534,6 +5220,9 @@
         <v>70</v>
       </c>
       <c r="B69" s="3"/>
+      <c r="C69" s="934" t="s">
+        <v>374</v>
+      </c>
       <c r="D69" s="140" t="s">
         <v>374</v>
       </c>
@@ -3543,6 +5232,9 @@
         <v>71</v>
       </c>
       <c r="B70" s="3"/>
+      <c r="C70" s="936" t="s">
+        <v>373</v>
+      </c>
       <c r="D70" s="142" t="s">
         <v>373</v>
       </c>
@@ -3552,6 +5244,9 @@
         <v>72</v>
       </c>
       <c r="B71" s="3"/>
+      <c r="C71" s="938" t="s">
+        <v>375</v>
+      </c>
       <c r="D71" s="144" t="s">
         <v>375</v>
       </c>
@@ -3561,6 +5256,9 @@
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
+      <c r="C72" s="940" t="s">
+        <v>375</v>
+      </c>
       <c r="D72" s="146" t="s">
         <v>375</v>
       </c>
@@ -3570,6 +5268,9 @@
         <v>74</v>
       </c>
       <c r="B73" s="3"/>
+      <c r="C73" s="942" t="s">
+        <v>375</v>
+      </c>
       <c r="D73" s="148" t="s">
         <v>375</v>
       </c>
@@ -3579,6 +5280,9 @@
         <v>75</v>
       </c>
       <c r="B74" s="3"/>
+      <c r="C74" s="944" t="s">
+        <v>375</v>
+      </c>
       <c r="D74" s="150" t="s">
         <v>375</v>
       </c>
@@ -3588,6 +5292,9 @@
         <v>76</v>
       </c>
       <c r="B75" s="3"/>
+      <c r="C75" s="946" t="s">
+        <v>375</v>
+      </c>
       <c r="D75" s="152" t="s">
         <v>375</v>
       </c>
@@ -3597,6 +5304,9 @@
         <v>77</v>
       </c>
       <c r="B76" s="3"/>
+      <c r="C76" s="948" t="s">
+        <v>373</v>
+      </c>
       <c r="D76" s="154" t="s">
         <v>375</v>
       </c>
@@ -3606,6 +5316,9 @@
         <v>78</v>
       </c>
       <c r="B77" s="3"/>
+      <c r="C77" s="950" t="s">
+        <v>374</v>
+      </c>
       <c r="D77" s="156" t="s">
         <v>374</v>
       </c>
@@ -3615,6 +5328,9 @@
         <v>79</v>
       </c>
       <c r="B78" s="3"/>
+      <c r="C78" s="952" t="s">
+        <v>375</v>
+      </c>
       <c r="D78" s="158" t="s">
         <v>375</v>
       </c>
@@ -3624,6 +5340,9 @@
         <v>80</v>
       </c>
       <c r="B79" s="3"/>
+      <c r="C79" s="954" t="s">
+        <v>375</v>
+      </c>
       <c r="D79" s="160" t="s">
         <v>375</v>
       </c>
@@ -3633,6 +5352,9 @@
         <v>81</v>
       </c>
       <c r="B80" s="3"/>
+      <c r="C80" s="956" t="s">
+        <v>373</v>
+      </c>
       <c r="D80" s="162" t="s">
         <v>373</v>
       </c>
@@ -3642,6 +5364,9 @@
         <v>82</v>
       </c>
       <c r="B81" s="3"/>
+      <c r="C81" s="958" t="s">
+        <v>374</v>
+      </c>
       <c r="D81" s="164" t="s">
         <v>374</v>
       </c>
@@ -3651,6 +5376,9 @@
         <v>83</v>
       </c>
       <c r="B82" s="3"/>
+      <c r="C82" s="960" t="s">
+        <v>373</v>
+      </c>
       <c r="D82" s="166" t="s">
         <v>373</v>
       </c>
@@ -3660,6 +5388,9 @@
         <v>84</v>
       </c>
       <c r="B83" s="3"/>
+      <c r="C83" s="962" t="s">
+        <v>374</v>
+      </c>
       <c r="D83" s="168" t="s">
         <v>373</v>
       </c>
@@ -3669,6 +5400,9 @@
         <v>85</v>
       </c>
       <c r="B84" s="3"/>
+      <c r="C84" s="964" t="s">
+        <v>375</v>
+      </c>
       <c r="D84" s="170" t="s">
         <v>375</v>
       </c>
@@ -3678,6 +5412,9 @@
         <v>86</v>
       </c>
       <c r="B85" s="3"/>
+      <c r="C85" s="966" t="s">
+        <v>375</v>
+      </c>
       <c r="D85" s="172" t="s">
         <v>375</v>
       </c>
@@ -3687,6 +5424,9 @@
         <v>87</v>
       </c>
       <c r="B86" s="3"/>
+      <c r="C86" s="968" t="s">
+        <v>375</v>
+      </c>
       <c r="D86" s="174" t="s">
         <v>373</v>
       </c>
@@ -3696,6 +5436,9 @@
         <v>88</v>
       </c>
       <c r="B87" s="3"/>
+      <c r="C87" s="970" t="s">
+        <v>375</v>
+      </c>
       <c r="D87" s="176" t="s">
         <v>375</v>
       </c>
@@ -3705,6 +5448,9 @@
         <v>89</v>
       </c>
       <c r="B88" s="3"/>
+      <c r="C88" s="972" t="s">
+        <v>373</v>
+      </c>
       <c r="D88" s="178" t="s">
         <v>373</v>
       </c>
@@ -3714,6 +5460,9 @@
         <v>90</v>
       </c>
       <c r="B89" s="3"/>
+      <c r="C89" s="974" t="s">
+        <v>375</v>
+      </c>
       <c r="D89" s="180" t="s">
         <v>375</v>
       </c>
@@ -3723,6 +5472,9 @@
         <v>91</v>
       </c>
       <c r="B90" s="3"/>
+      <c r="C90" s="976" t="s">
+        <v>373</v>
+      </c>
       <c r="D90" s="182" t="s">
         <v>373</v>
       </c>
@@ -3732,6 +5484,9 @@
         <v>92</v>
       </c>
       <c r="B91" s="3"/>
+      <c r="C91" s="978" t="s">
+        <v>376</v>
+      </c>
       <c r="D91" s="184" t="s">
         <v>373</v>
       </c>
@@ -3741,6 +5496,9 @@
         <v>93</v>
       </c>
       <c r="B92" s="3"/>
+      <c r="C92" s="980" t="s">
+        <v>375</v>
+      </c>
       <c r="D92" s="186" t="s">
         <v>375</v>
       </c>
@@ -3750,6 +5508,9 @@
         <v>94</v>
       </c>
       <c r="B93" s="3"/>
+      <c r="C93" s="982" t="s">
+        <v>375</v>
+      </c>
       <c r="D93" s="768" t="s">
         <v>373</v>
       </c>
@@ -3759,6 +5520,9 @@
         <v>95</v>
       </c>
       <c r="B94" s="3"/>
+      <c r="C94" s="984" t="s">
+        <v>375</v>
+      </c>
       <c r="D94" s="190" t="s">
         <v>375</v>
       </c>
@@ -3768,6 +5532,9 @@
         <v>96</v>
       </c>
       <c r="B95" s="3"/>
+      <c r="C95" s="988" t="s">
+        <v>373</v>
+      </c>
       <c r="D95" s="192" t="s">
         <v>373</v>
       </c>
@@ -3777,6 +5544,9 @@
         <v>97</v>
       </c>
       <c r="B96" s="3"/>
+      <c r="C96" s="990" t="s">
+        <v>376</v>
+      </c>
       <c r="D96" s="194" t="s">
         <v>373</v>
       </c>
@@ -3786,6 +5556,9 @@
         <v>98</v>
       </c>
       <c r="B97" s="3"/>
+      <c r="C97" s="992" t="s">
+        <v>375</v>
+      </c>
       <c r="D97" s="196" t="s">
         <v>375</v>
       </c>
@@ -3795,6 +5568,9 @@
         <v>99</v>
       </c>
       <c r="B98" s="3"/>
+      <c r="C98" s="994" t="s">
+        <v>373</v>
+      </c>
       <c r="D98" s="198" t="s">
         <v>373</v>
       </c>
@@ -3804,6 +5580,9 @@
         <v>100</v>
       </c>
       <c r="B99" s="3"/>
+      <c r="C99" s="996" t="s">
+        <v>375</v>
+      </c>
       <c r="D99" s="200" t="s">
         <v>375</v>
       </c>
@@ -3813,6 +5592,9 @@
         <v>101</v>
       </c>
       <c r="B100" s="3"/>
+      <c r="C100" s="998" t="s">
+        <v>375</v>
+      </c>
       <c r="D100" s="202" t="s">
         <v>375</v>
       </c>
@@ -3822,6 +5604,9 @@
         <v>102</v>
       </c>
       <c r="B101" s="3"/>
+      <c r="C101" s="1000" t="s">
+        <v>374</v>
+      </c>
       <c r="D101" s="204" t="s">
         <v>374</v>
       </c>
@@ -3831,6 +5616,9 @@
         <v>103</v>
       </c>
       <c r="B102" s="3"/>
+      <c r="C102" s="1002" t="s">
+        <v>375</v>
+      </c>
       <c r="D102" s="770" t="s">
         <v>373</v>
       </c>
@@ -3840,6 +5628,9 @@
         <v>104</v>
       </c>
       <c r="B103" s="3"/>
+      <c r="C103" s="1004" t="s">
+        <v>373</v>
+      </c>
       <c r="D103" s="208" t="s">
         <v>373</v>
       </c>
@@ -3849,6 +5640,9 @@
         <v>105</v>
       </c>
       <c r="B104" s="3"/>
+      <c r="C104" s="1006" t="s">
+        <v>375</v>
+      </c>
       <c r="D104" s="210" t="s">
         <v>375</v>
       </c>
@@ -3858,6 +5652,9 @@
         <v>106</v>
       </c>
       <c r="B105" s="3"/>
+      <c r="C105" s="1008" t="s">
+        <v>375</v>
+      </c>
       <c r="D105" s="212" t="s">
         <v>375</v>
       </c>
@@ -3867,6 +5664,9 @@
         <v>107</v>
       </c>
       <c r="B106" s="3"/>
+      <c r="C106" s="1010" t="s">
+        <v>373</v>
+      </c>
       <c r="D106" s="214" t="s">
         <v>373</v>
       </c>
@@ -3876,6 +5676,9 @@
         <v>108</v>
       </c>
       <c r="B107" s="3"/>
+      <c r="C107" s="1012" t="s">
+        <v>373</v>
+      </c>
       <c r="D107" s="216" t="s">
         <v>373</v>
       </c>
@@ -3885,6 +5688,9 @@
         <v>109</v>
       </c>
       <c r="B108" s="3"/>
+      <c r="C108" s="1014" t="s">
+        <v>374</v>
+      </c>
       <c r="D108" s="218" t="s">
         <v>374</v>
       </c>
@@ -3894,6 +5700,9 @@
         <v>110</v>
       </c>
       <c r="B109" s="3"/>
+      <c r="C109" s="1016" t="s">
+        <v>374</v>
+      </c>
       <c r="D109" s="220" t="s">
         <v>374</v>
       </c>
@@ -3903,6 +5712,9 @@
         <v>111</v>
       </c>
       <c r="B110" s="3"/>
+      <c r="C110" s="1018" t="s">
+        <v>373</v>
+      </c>
       <c r="D110" s="222" t="s">
         <v>374</v>
       </c>
@@ -3912,6 +5724,9 @@
         <v>112</v>
       </c>
       <c r="B111" s="3"/>
+      <c r="C111" s="1020" t="s">
+        <v>375</v>
+      </c>
       <c r="D111" s="224" t="s">
         <v>375</v>
       </c>
@@ -3921,6 +5736,9 @@
         <v>113</v>
       </c>
       <c r="B112" s="3"/>
+      <c r="C112" s="1022" t="s">
+        <v>374</v>
+      </c>
       <c r="D112" s="226" t="s">
         <v>374</v>
       </c>
@@ -3930,6 +5748,9 @@
         <v>114</v>
       </c>
       <c r="B113" s="3"/>
+      <c r="C113" s="1024" t="s">
+        <v>374</v>
+      </c>
       <c r="D113" s="228" t="s">
         <v>374</v>
       </c>
@@ -3939,6 +5760,9 @@
         <v>115</v>
       </c>
       <c r="B114" s="3"/>
+      <c r="C114" s="1026" t="s">
+        <v>373</v>
+      </c>
       <c r="D114" s="230" t="s">
         <v>373</v>
       </c>
@@ -3948,6 +5772,9 @@
         <v>116</v>
       </c>
       <c r="B115" s="3"/>
+      <c r="C115" s="1028" t="s">
+        <v>376</v>
+      </c>
       <c r="D115" s="232" t="s">
         <v>375</v>
       </c>
@@ -3957,6 +5784,9 @@
         <v>117</v>
       </c>
       <c r="B116" s="3"/>
+      <c r="C116" s="1030" t="s">
+        <v>374</v>
+      </c>
       <c r="D116" s="234" t="s">
         <v>374</v>
       </c>
@@ -3966,6 +5796,9 @@
         <v>118</v>
       </c>
       <c r="B117" s="3"/>
+      <c r="C117" s="1032" t="s">
+        <v>373</v>
+      </c>
       <c r="D117" s="236" t="s">
         <v>373</v>
       </c>
@@ -3975,6 +5808,9 @@
         <v>119</v>
       </c>
       <c r="B118" s="3"/>
+      <c r="C118" s="1034" t="s">
+        <v>375</v>
+      </c>
       <c r="D118" s="238" t="s">
         <v>375</v>
       </c>
@@ -3984,6 +5820,9 @@
         <v>120</v>
       </c>
       <c r="B119" s="3"/>
+      <c r="C119" s="1036" t="s">
+        <v>373</v>
+      </c>
       <c r="D119" s="240" t="s">
         <v>373</v>
       </c>
@@ -3993,6 +5832,9 @@
         <v>121</v>
       </c>
       <c r="B120" s="3"/>
+      <c r="C120" s="1038" t="s">
+        <v>375</v>
+      </c>
       <c r="D120" s="242" t="s">
         <v>375</v>
       </c>
@@ -4002,6 +5844,9 @@
         <v>122</v>
       </c>
       <c r="B121" s="3"/>
+      <c r="C121" s="1040" t="s">
+        <v>373</v>
+      </c>
       <c r="D121" s="244" t="s">
         <v>373</v>
       </c>
@@ -4011,6 +5856,9 @@
         <v>123</v>
       </c>
       <c r="B122" s="3"/>
+      <c r="C122" s="1042" t="s">
+        <v>375</v>
+      </c>
       <c r="D122" s="246" t="s">
         <v>375</v>
       </c>
@@ -4020,6 +5868,9 @@
         <v>124</v>
       </c>
       <c r="B123" s="3"/>
+      <c r="C123" s="1044" t="s">
+        <v>373</v>
+      </c>
       <c r="D123" s="772" t="s">
         <v>373</v>
       </c>
@@ -4029,6 +5880,9 @@
         <v>125</v>
       </c>
       <c r="B124" s="3"/>
+      <c r="C124" s="1046" t="s">
+        <v>373</v>
+      </c>
       <c r="D124" s="250" t="s">
         <v>373</v>
       </c>
@@ -4038,6 +5892,9 @@
         <v>126</v>
       </c>
       <c r="B125" s="3"/>
+      <c r="C125" s="1048" t="s">
+        <v>375</v>
+      </c>
       <c r="D125" s="252" t="s">
         <v>373</v>
       </c>
@@ -4047,6 +5904,9 @@
         <v>127</v>
       </c>
       <c r="B126" s="3"/>
+      <c r="C126" s="1050" t="s">
+        <v>374</v>
+      </c>
       <c r="D126" s="774" t="s">
         <v>376</v>
       </c>
@@ -4056,6 +5916,9 @@
         <v>128</v>
       </c>
       <c r="B127" s="3"/>
+      <c r="C127" s="1052" t="s">
+        <v>375</v>
+      </c>
       <c r="D127" s="256" t="s">
         <v>375</v>
       </c>
@@ -4065,6 +5928,9 @@
         <v>129</v>
       </c>
       <c r="B128" s="3"/>
+      <c r="C128" s="1054" t="s">
+        <v>373</v>
+      </c>
       <c r="D128" s="258" t="s">
         <v>376</v>
       </c>
@@ -4074,6 +5940,9 @@
         <v>130</v>
       </c>
       <c r="B129" s="3"/>
+      <c r="C129" s="1056" t="s">
+        <v>375</v>
+      </c>
       <c r="D129" s="260" t="s">
         <v>375</v>
       </c>
@@ -4083,6 +5952,9 @@
         <v>131</v>
       </c>
       <c r="B130" s="3"/>
+      <c r="C130" s="1058" t="s">
+        <v>374</v>
+      </c>
       <c r="D130" s="776" t="s">
         <v>376</v>
       </c>
@@ -4092,6 +5964,9 @@
         <v>132</v>
       </c>
       <c r="B131" s="3"/>
+      <c r="C131" s="1060" t="s">
+        <v>373</v>
+      </c>
       <c r="D131" s="264" t="s">
         <v>375</v>
       </c>
@@ -4101,6 +5976,9 @@
         <v>133</v>
       </c>
       <c r="B132" s="3"/>
+      <c r="C132" s="1062" t="s">
+        <v>375</v>
+      </c>
       <c r="D132" s="266" t="s">
         <v>375</v>
       </c>
@@ -4110,6 +5988,9 @@
         <v>134</v>
       </c>
       <c r="B133" s="3"/>
+      <c r="C133" s="1064" t="s">
+        <v>375</v>
+      </c>
       <c r="D133" s="268" t="s">
         <v>375</v>
       </c>
@@ -4119,6 +6000,9 @@
         <v>135</v>
       </c>
       <c r="B134" s="3"/>
+      <c r="C134" s="1066" t="s">
+        <v>375</v>
+      </c>
       <c r="D134" s="270" t="s">
         <v>375</v>
       </c>
@@ -4128,6 +6012,9 @@
         <v>136</v>
       </c>
       <c r="B135" s="3"/>
+      <c r="C135" s="1106" t="s">
+        <v>375</v>
+      </c>
       <c r="D135" s="272" t="s">
         <v>375</v>
       </c>
@@ -4137,6 +6024,9 @@
         <v>137</v>
       </c>
       <c r="B136" s="3"/>
+      <c r="C136" s="1070" t="s">
+        <v>376</v>
+      </c>
       <c r="D136" s="274" t="s">
         <v>376</v>
       </c>
@@ -4146,6 +6036,9 @@
         <v>138</v>
       </c>
       <c r="B137" s="3"/>
+      <c r="C137" s="1072" t="s">
+        <v>375</v>
+      </c>
       <c r="D137" s="276" t="s">
         <v>375</v>
       </c>
@@ -4155,6 +6048,9 @@
         <v>139</v>
       </c>
       <c r="B138" s="3"/>
+      <c r="C138" s="1074" t="s">
+        <v>373</v>
+      </c>
       <c r="D138" s="278" t="s">
         <v>373</v>
       </c>
@@ -4164,6 +6060,9 @@
         <v>140</v>
       </c>
       <c r="B139" s="3"/>
+      <c r="C139" s="1076" t="s">
+        <v>373</v>
+      </c>
       <c r="D139" s="280" t="s">
         <v>373</v>
       </c>
@@ -4173,6 +6072,9 @@
         <v>141</v>
       </c>
       <c r="B140" s="3"/>
+      <c r="C140" s="1078" t="s">
+        <v>374</v>
+      </c>
       <c r="D140" s="282" t="s">
         <v>374</v>
       </c>
@@ -4182,6 +6084,9 @@
         <v>142</v>
       </c>
       <c r="B141" s="3"/>
+      <c r="C141" s="1104" t="s">
+        <v>373</v>
+      </c>
       <c r="D141" s="284" t="s">
         <v>375</v>
       </c>
@@ -4191,6 +6096,9 @@
         <v>143</v>
       </c>
       <c r="B142" s="3"/>
+      <c r="C142" s="1082" t="s">
+        <v>375</v>
+      </c>
       <c r="D142" s="286" t="s">
         <v>375</v>
       </c>
@@ -4200,6 +6108,9 @@
         <v>144</v>
       </c>
       <c r="B143" s="3"/>
+      <c r="C143" s="1102" t="s">
+        <v>373</v>
+      </c>
       <c r="D143" s="288" t="s">
         <v>375</v>
       </c>
@@ -4209,6 +6120,9 @@
         <v>145</v>
       </c>
       <c r="B144" s="3"/>
+      <c r="C144" s="1086" t="s">
+        <v>375</v>
+      </c>
       <c r="D144" s="290" t="s">
         <v>375</v>
       </c>
@@ -4218,6 +6132,9 @@
         <v>146</v>
       </c>
       <c r="B145" s="3"/>
+      <c r="C145" s="1088" t="s">
+        <v>373</v>
+      </c>
       <c r="D145" s="778" t="s">
         <v>373</v>
       </c>
@@ -4227,6 +6144,9 @@
         <v>147</v>
       </c>
       <c r="B146" s="3"/>
+      <c r="C146" s="1090" t="s">
+        <v>373</v>
+      </c>
       <c r="D146" s="294" t="s">
         <v>373</v>
       </c>
@@ -4236,6 +6156,9 @@
         <v>148</v>
       </c>
       <c r="B147" s="3"/>
+      <c r="C147" s="1092" t="s">
+        <v>375</v>
+      </c>
       <c r="D147" s="296" t="s">
         <v>375</v>
       </c>
@@ -4245,6 +6168,9 @@
         <v>149</v>
       </c>
       <c r="B148" s="3"/>
+      <c r="C148" s="1094" t="s">
+        <v>375</v>
+      </c>
       <c r="D148" s="298" t="s">
         <v>373</v>
       </c>
@@ -4254,6 +6180,9 @@
         <v>150</v>
       </c>
       <c r="B149" s="3"/>
+      <c r="C149" s="1096" t="s">
+        <v>374</v>
+      </c>
       <c r="D149" s="300" t="s">
         <v>374</v>
       </c>
@@ -4263,6 +6192,9 @@
         <v>151</v>
       </c>
       <c r="B150" s="3"/>
+      <c r="C150" s="1098" t="s">
+        <v>373</v>
+      </c>
       <c r="D150" s="302" t="s">
         <v>376</v>
       </c>
@@ -4272,6 +6204,9 @@
         <v>152</v>
       </c>
       <c r="B151" s="3"/>
+      <c r="C151" s="1100" t="s">
+        <v>373</v>
+      </c>
       <c r="D151" s="304" t="s">
         <v>373</v>
       </c>
@@ -4281,6 +6216,9 @@
         <v>153</v>
       </c>
       <c r="B152" s="3"/>
+      <c r="C152" s="1108" t="s">
+        <v>375</v>
+      </c>
       <c r="D152" s="306" t="s">
         <v>375</v>
       </c>
@@ -4290,6 +6228,9 @@
         <v>154</v>
       </c>
       <c r="B153" s="3"/>
+      <c r="C153" s="1110" t="s">
+        <v>375</v>
+      </c>
       <c r="D153" s="308" t="s">
         <v>375</v>
       </c>
@@ -4299,6 +6240,9 @@
         <v>155</v>
       </c>
       <c r="B154" s="3"/>
+      <c r="C154" s="1112" t="s">
+        <v>373</v>
+      </c>
       <c r="D154" s="310" t="s">
         <v>373</v>
       </c>
@@ -4308,6 +6252,9 @@
         <v>156</v>
       </c>
       <c r="B155" s="3"/>
+      <c r="C155" s="1114" t="s">
+        <v>375</v>
+      </c>
       <c r="D155" s="780" t="s">
         <v>375</v>
       </c>
@@ -4317,6 +6264,9 @@
         <v>157</v>
       </c>
       <c r="B156" s="3"/>
+      <c r="C156" s="1116" t="s">
+        <v>375</v>
+      </c>
       <c r="D156" s="316" t="s">
         <v>375</v>
       </c>
@@ -4326,6 +6276,9 @@
         <v>158</v>
       </c>
       <c r="B157" s="3"/>
+      <c r="C157" s="1118" t="s">
+        <v>375</v>
+      </c>
       <c r="D157" s="318" t="s">
         <v>375</v>
       </c>
@@ -4335,6 +6288,9 @@
         <v>159</v>
       </c>
       <c r="B158" s="3"/>
+      <c r="C158" s="1120" t="s">
+        <v>375</v>
+      </c>
       <c r="D158" s="320" t="s">
         <v>373</v>
       </c>
@@ -4344,6 +6300,9 @@
         <v>160</v>
       </c>
       <c r="B159" s="3"/>
+      <c r="C159" s="1122" t="s">
+        <v>375</v>
+      </c>
       <c r="D159" s="322" t="s">
         <v>375</v>
       </c>
@@ -4353,6 +6312,9 @@
         <v>161</v>
       </c>
       <c r="B160" s="3"/>
+      <c r="C160" s="1124" t="s">
+        <v>374</v>
+      </c>
       <c r="D160" s="324" t="s">
         <v>376</v>
       </c>
@@ -4362,6 +6324,9 @@
         <v>162</v>
       </c>
       <c r="B161" s="3"/>
+      <c r="C161" s="1126" t="s">
+        <v>373</v>
+      </c>
       <c r="D161" s="326" t="s">
         <v>376</v>
       </c>
@@ -4371,6 +6336,9 @@
         <v>163</v>
       </c>
       <c r="B162" s="3"/>
+      <c r="C162" s="1128" t="s">
+        <v>373</v>
+      </c>
       <c r="D162" s="328" t="s">
         <v>373</v>
       </c>
@@ -4380,6 +6348,9 @@
         <v>164</v>
       </c>
       <c r="B163" s="3"/>
+      <c r="C163" s="1130" t="s">
+        <v>376</v>
+      </c>
       <c r="D163" s="330" t="s">
         <v>376</v>
       </c>
@@ -4389,6 +6360,9 @@
         <v>165</v>
       </c>
       <c r="B164" s="3"/>
+      <c r="C164" s="1132" t="s">
+        <v>375</v>
+      </c>
       <c r="D164" s="332" t="s">
         <v>375</v>
       </c>
@@ -4398,6 +6372,9 @@
         <v>166</v>
       </c>
       <c r="B165" s="3"/>
+      <c r="C165" s="1134" t="s">
+        <v>375</v>
+      </c>
       <c r="D165" s="782" t="s">
         <v>375</v>
       </c>
@@ -4407,6 +6384,9 @@
         <v>167</v>
       </c>
       <c r="B166" s="3"/>
+      <c r="C166" s="1136" t="s">
+        <v>375</v>
+      </c>
       <c r="D166" s="336" t="s">
         <v>375</v>
       </c>
@@ -4416,6 +6396,9 @@
         <v>168</v>
       </c>
       <c r="B167" s="3"/>
+      <c r="C167" s="1138" t="s">
+        <v>375</v>
+      </c>
       <c r="D167" s="338" t="s">
         <v>373</v>
       </c>
@@ -4425,6 +6408,9 @@
         <v>169</v>
       </c>
       <c r="B168" s="3"/>
+      <c r="C168" s="1140" t="s">
+        <v>375</v>
+      </c>
       <c r="D168" s="340" t="s">
         <v>375</v>
       </c>
@@ -4434,6 +6420,9 @@
         <v>170</v>
       </c>
       <c r="B169" s="3"/>
+      <c r="C169" s="1142" t="s">
+        <v>373</v>
+      </c>
       <c r="D169" s="342" t="s">
         <v>373</v>
       </c>
@@ -4443,6 +6432,9 @@
         <v>171</v>
       </c>
       <c r="B170" s="3"/>
+      <c r="C170" s="1144" t="s">
+        <v>375</v>
+      </c>
       <c r="D170" s="344" t="s">
         <v>375</v>
       </c>
@@ -4452,6 +6444,9 @@
         <v>172</v>
       </c>
       <c r="B171" s="3"/>
+      <c r="C171" s="1146" t="s">
+        <v>375</v>
+      </c>
       <c r="D171" s="346" t="s">
         <v>375</v>
       </c>
@@ -4461,6 +6456,9 @@
         <v>173</v>
       </c>
       <c r="B172" s="3"/>
+      <c r="C172" s="1148" t="s">
+        <v>374</v>
+      </c>
       <c r="D172" s="348" t="s">
         <v>373</v>
       </c>
@@ -4470,6 +6468,9 @@
         <v>174</v>
       </c>
       <c r="B173" s="3"/>
+      <c r="C173" s="1150" t="s">
+        <v>375</v>
+      </c>
       <c r="D173" s="350" t="s">
         <v>375</v>
       </c>
@@ -4479,6 +6480,9 @@
         <v>175</v>
       </c>
       <c r="B174" s="3"/>
+      <c r="C174" s="1152" t="s">
+        <v>375</v>
+      </c>
       <c r="D174" s="352" t="s">
         <v>373</v>
       </c>
@@ -4488,6 +6492,9 @@
         <v>176</v>
       </c>
       <c r="B175" s="3"/>
+      <c r="C175" s="1154" t="s">
+        <v>375</v>
+      </c>
       <c r="D175" s="354" t="s">
         <v>375</v>
       </c>
@@ -4497,6 +6504,9 @@
         <v>177</v>
       </c>
       <c r="B176" s="3"/>
+      <c r="C176" s="1156" t="s">
+        <v>373</v>
+      </c>
       <c r="D176" s="356" t="s">
         <v>373</v>
       </c>
@@ -4506,6 +6516,9 @@
         <v>178</v>
       </c>
       <c r="B177" s="3"/>
+      <c r="C177" s="1158" t="s">
+        <v>373</v>
+      </c>
       <c r="D177" s="358" t="s">
         <v>373</v>
       </c>
@@ -4515,6 +6528,9 @@
         <v>179</v>
       </c>
       <c r="B178" s="3"/>
+      <c r="C178" s="1160" t="s">
+        <v>375</v>
+      </c>
       <c r="D178" s="360" t="s">
         <v>375</v>
       </c>
@@ -4524,6 +6540,9 @@
         <v>180</v>
       </c>
       <c r="B179" s="3"/>
+      <c r="C179" s="1162" t="s">
+        <v>373</v>
+      </c>
       <c r="D179" s="784" t="s">
         <v>373</v>
       </c>
@@ -4533,6 +6552,9 @@
         <v>181</v>
       </c>
       <c r="B180" s="3"/>
+      <c r="C180" s="1164" t="s">
+        <v>373</v>
+      </c>
       <c r="D180" s="364" t="s">
         <v>376</v>
       </c>
@@ -4542,6 +6564,9 @@
         <v>182</v>
       </c>
       <c r="B181" s="3"/>
+      <c r="C181" s="1166" t="s">
+        <v>376</v>
+      </c>
       <c r="D181" s="366" t="s">
         <v>376</v>
       </c>
@@ -4551,6 +6576,9 @@
         <v>183</v>
       </c>
       <c r="B182" s="3"/>
+      <c r="C182" s="1168" t="s">
+        <v>375</v>
+      </c>
       <c r="D182" s="368" t="s">
         <v>375</v>
       </c>
@@ -4560,6 +6588,9 @@
         <v>184</v>
       </c>
       <c r="B183" s="3"/>
+      <c r="C183" s="1170" t="s">
+        <v>375</v>
+      </c>
       <c r="D183" s="370" t="s">
         <v>373</v>
       </c>
@@ -4569,6 +6600,9 @@
         <v>185</v>
       </c>
       <c r="B184" s="3"/>
+      <c r="C184" s="1172" t="s">
+        <v>375</v>
+      </c>
       <c r="D184" s="372" t="s">
         <v>375</v>
       </c>
@@ -4578,6 +6612,9 @@
         <v>186</v>
       </c>
       <c r="B185" s="3"/>
+      <c r="C185" s="1174" t="s">
+        <v>373</v>
+      </c>
       <c r="D185" s="374" t="s">
         <v>376</v>
       </c>
@@ -4587,6 +6624,9 @@
         <v>187</v>
       </c>
       <c r="B186" s="3"/>
+      <c r="C186" s="1176" t="s">
+        <v>375</v>
+      </c>
       <c r="D186" s="376" t="s">
         <v>375</v>
       </c>
@@ -4596,6 +6636,9 @@
         <v>188</v>
       </c>
       <c r="B187" s="3"/>
+      <c r="C187" s="1178" t="s">
+        <v>375</v>
+      </c>
       <c r="D187" s="786" t="s">
         <v>375</v>
       </c>
@@ -4605,6 +6648,9 @@
         <v>189</v>
       </c>
       <c r="B188" s="3"/>
+      <c r="C188" s="1180" t="s">
+        <v>373</v>
+      </c>
       <c r="D188" s="380" t="s">
         <v>373</v>
       </c>
@@ -4614,6 +6660,9 @@
         <v>190</v>
       </c>
       <c r="B189" s="3"/>
+      <c r="C189" s="1182" t="s">
+        <v>373</v>
+      </c>
       <c r="D189" s="382" t="s">
         <v>373</v>
       </c>
@@ -4623,6 +6672,9 @@
         <v>191</v>
       </c>
       <c r="B190" s="3"/>
+      <c r="C190" s="1184" t="s">
+        <v>375</v>
+      </c>
       <c r="D190" s="384" t="s">
         <v>375</v>
       </c>
@@ -4632,6 +6684,9 @@
         <v>192</v>
       </c>
       <c r="B191" s="3"/>
+      <c r="C191" s="1186" t="s">
+        <v>375</v>
+      </c>
       <c r="D191" s="386" t="s">
         <v>375</v>
       </c>
@@ -4641,6 +6696,9 @@
         <v>193</v>
       </c>
       <c r="B192" s="3"/>
+      <c r="C192" s="1188" t="s">
+        <v>375</v>
+      </c>
       <c r="D192" s="388" t="s">
         <v>373</v>
       </c>
@@ -4650,6 +6708,9 @@
         <v>194</v>
       </c>
       <c r="B193" s="3"/>
+      <c r="C193" s="1190" t="s">
+        <v>375</v>
+      </c>
       <c r="D193" s="390" t="s">
         <v>375</v>
       </c>
@@ -4659,6 +6720,9 @@
         <v>195</v>
       </c>
       <c r="B194" s="3"/>
+      <c r="C194" s="1192" t="s">
+        <v>375</v>
+      </c>
       <c r="D194" s="392" t="s">
         <v>376</v>
       </c>
@@ -4668,6 +6732,9 @@
         <v>196</v>
       </c>
       <c r="B195" s="3"/>
+      <c r="C195" s="1194" t="s">
+        <v>375</v>
+      </c>
       <c r="D195" s="394" t="s">
         <v>375</v>
       </c>
@@ -4677,6 +6744,9 @@
         <v>197</v>
       </c>
       <c r="B196" s="3"/>
+      <c r="C196" s="1196" t="s">
+        <v>373</v>
+      </c>
       <c r="D196" s="396" t="s">
         <v>373</v>
       </c>
@@ -4686,6 +6756,9 @@
         <v>198</v>
       </c>
       <c r="B197" s="3"/>
+      <c r="C197" s="1198" t="s">
+        <v>375</v>
+      </c>
       <c r="D197" s="398" t="s">
         <v>375</v>
       </c>
@@ -4695,6 +6768,9 @@
         <v>199</v>
       </c>
       <c r="B198" s="3"/>
+      <c r="C198" s="1200" t="s">
+        <v>375</v>
+      </c>
       <c r="D198" s="400" t="s">
         <v>375</v>
       </c>
@@ -4704,6 +6780,9 @@
         <v>200</v>
       </c>
       <c r="B199" s="3"/>
+      <c r="C199" s="1202" t="s">
+        <v>375</v>
+      </c>
       <c r="D199" s="402" t="s">
         <v>375</v>
       </c>
@@ -4713,6 +6792,9 @@
         <v>201</v>
       </c>
       <c r="B200" s="3"/>
+      <c r="C200" s="1204" t="s">
+        <v>373</v>
+      </c>
       <c r="D200" s="404" t="s">
         <v>373</v>
       </c>
@@ -4722,6 +6804,9 @@
         <v>202</v>
       </c>
       <c r="B201" s="3"/>
+      <c r="C201" s="1206" t="s">
+        <v>375</v>
+      </c>
       <c r="D201" s="406" t="s">
         <v>373</v>
       </c>
@@ -4731,6 +6816,9 @@
         <v>203</v>
       </c>
       <c r="B202" s="3"/>
+      <c r="C202" s="1208" t="s">
+        <v>375</v>
+      </c>
       <c r="D202" s="408" t="s">
         <v>375</v>
       </c>
@@ -4740,6 +6828,9 @@
         <v>204</v>
       </c>
       <c r="B203" s="3"/>
+      <c r="C203" s="1210" t="s">
+        <v>375</v>
+      </c>
       <c r="D203" s="410" t="s">
         <v>375</v>
       </c>
@@ -4749,6 +6840,9 @@
         <v>205</v>
       </c>
       <c r="B204" s="3"/>
+      <c r="C204" s="1212" t="s">
+        <v>373</v>
+      </c>
       <c r="D204" s="412" t="s">
         <v>375</v>
       </c>
@@ -4758,6 +6852,9 @@
         <v>206</v>
       </c>
       <c r="B205" s="3"/>
+      <c r="C205" s="1214" t="s">
+        <v>374</v>
+      </c>
       <c r="D205" s="414" t="s">
         <v>374</v>
       </c>
@@ -4767,6 +6864,9 @@
         <v>207</v>
       </c>
       <c r="B206" s="3"/>
+      <c r="C206" s="1216" t="s">
+        <v>373</v>
+      </c>
       <c r="D206" s="416" t="s">
         <v>373</v>
       </c>
@@ -4776,6 +6876,9 @@
         <v>208</v>
       </c>
       <c r="B207" s="3"/>
+      <c r="C207" s="1218" t="s">
+        <v>373</v>
+      </c>
       <c r="D207" s="418" t="s">
         <v>373</v>
       </c>
@@ -4785,6 +6888,9 @@
         <v>209</v>
       </c>
       <c r="B208" s="3"/>
+      <c r="C208" s="1220" t="s">
+        <v>375</v>
+      </c>
       <c r="D208" s="420" t="s">
         <v>375</v>
       </c>
@@ -4794,6 +6900,9 @@
         <v>210</v>
       </c>
       <c r="B209" s="3"/>
+      <c r="C209" s="1222" t="s">
+        <v>373</v>
+      </c>
       <c r="D209" s="422" t="s">
         <v>375</v>
       </c>
@@ -4803,6 +6912,9 @@
         <v>211</v>
       </c>
       <c r="B210" s="3"/>
+      <c r="C210" s="1224" t="s">
+        <v>375</v>
+      </c>
       <c r="D210" s="424" t="s">
         <v>375</v>
       </c>
@@ -4812,6 +6924,9 @@
         <v>212</v>
       </c>
       <c r="B211" s="3"/>
+      <c r="C211" s="1226" t="s">
+        <v>374</v>
+      </c>
       <c r="D211" s="426" t="s">
         <v>374</v>
       </c>
@@ -4821,6 +6936,9 @@
         <v>213</v>
       </c>
       <c r="B212" s="3"/>
+      <c r="C212" s="1228" t="s">
+        <v>375</v>
+      </c>
       <c r="D212" s="428" t="s">
         <v>375</v>
       </c>
@@ -4830,6 +6948,9 @@
         <v>214</v>
       </c>
       <c r="B213" s="3"/>
+      <c r="C213" s="1230" t="s">
+        <v>373</v>
+      </c>
       <c r="D213" s="430" t="s">
         <v>376</v>
       </c>
@@ -4839,6 +6960,9 @@
         <v>215</v>
       </c>
       <c r="B214" s="3"/>
+      <c r="C214" s="1232" t="s">
+        <v>375</v>
+      </c>
       <c r="D214" s="432" t="s">
         <v>375</v>
       </c>
@@ -4848,6 +6972,9 @@
         <v>216</v>
       </c>
       <c r="B215" s="3"/>
+      <c r="C215" s="1234" t="s">
+        <v>375</v>
+      </c>
       <c r="D215" s="434" t="s">
         <v>375</v>
       </c>
@@ -4857,6 +6984,9 @@
         <v>217</v>
       </c>
       <c r="B216" s="3"/>
+      <c r="C216" s="1236" t="s">
+        <v>374</v>
+      </c>
       <c r="D216" s="436" t="s">
         <v>376</v>
       </c>
@@ -4866,6 +6996,9 @@
         <v>218</v>
       </c>
       <c r="B217" s="3"/>
+      <c r="C217" s="1238" t="s">
+        <v>373</v>
+      </c>
       <c r="D217" s="438" t="s">
         <v>373</v>
       </c>
@@ -4875,6 +7008,9 @@
         <v>219</v>
       </c>
       <c r="B218" s="3"/>
+      <c r="C218" s="1240" t="s">
+        <v>375</v>
+      </c>
       <c r="D218" s="440" t="s">
         <v>375</v>
       </c>
@@ -4884,6 +7020,9 @@
         <v>220</v>
       </c>
       <c r="B219" s="3"/>
+      <c r="C219" s="1242" t="s">
+        <v>374</v>
+      </c>
       <c r="D219" s="442" t="s">
         <v>374</v>
       </c>
@@ -4893,6 +7032,9 @@
         <v>221</v>
       </c>
       <c r="B220" s="3"/>
+      <c r="C220" s="1244" t="s">
+        <v>374</v>
+      </c>
       <c r="D220" s="788" t="s">
         <v>376</v>
       </c>
@@ -4902,6 +7044,9 @@
         <v>222</v>
       </c>
       <c r="B221" s="3"/>
+      <c r="C221" s="1246" t="s">
+        <v>373</v>
+      </c>
       <c r="D221" s="446" t="s">
         <v>373</v>
       </c>
@@ -4911,6 +7056,9 @@
         <v>223</v>
       </c>
       <c r="B222" s="3"/>
+      <c r="C222" s="1248" t="s">
+        <v>374</v>
+      </c>
       <c r="D222" s="448" t="s">
         <v>374</v>
       </c>
@@ -4920,6 +7068,9 @@
         <v>224</v>
       </c>
       <c r="B223" s="3"/>
+      <c r="C223" s="1250" t="s">
+        <v>374</v>
+      </c>
       <c r="D223" s="450" t="s">
         <v>374</v>
       </c>
@@ -4929,6 +7080,9 @@
         <v>225</v>
       </c>
       <c r="B224" s="3"/>
+      <c r="C224" s="1252" t="s">
+        <v>374</v>
+      </c>
       <c r="D224" s="452" t="s">
         <v>374</v>
       </c>
@@ -4938,6 +7092,9 @@
         <v>226</v>
       </c>
       <c r="B225" s="3"/>
+      <c r="C225" s="1254" t="s">
+        <v>373</v>
+      </c>
       <c r="D225" s="454" t="s">
         <v>373</v>
       </c>
@@ -4947,6 +7104,9 @@
         <v>227</v>
       </c>
       <c r="B226" s="3"/>
+      <c r="C226" s="1256" t="s">
+        <v>373</v>
+      </c>
       <c r="D226" s="456" t="s">
         <v>376</v>
       </c>
@@ -4956,6 +7116,9 @@
         <v>228</v>
       </c>
       <c r="B227" s="3"/>
+      <c r="C227" s="1258" t="s">
+        <v>374</v>
+      </c>
       <c r="D227" s="458" t="s">
         <v>373</v>
       </c>
@@ -4965,6 +7128,9 @@
         <v>229</v>
       </c>
       <c r="B228" s="3"/>
+      <c r="C228" s="1260" t="s">
+        <v>373</v>
+      </c>
       <c r="D228" s="460" t="s">
         <v>373</v>
       </c>
@@ -4974,6 +7140,9 @@
         <v>230</v>
       </c>
       <c r="B229" s="3"/>
+      <c r="C229" s="1262" t="s">
+        <v>375</v>
+      </c>
       <c r="D229" s="462" t="s">
         <v>375</v>
       </c>
@@ -4983,6 +7152,9 @@
         <v>231</v>
       </c>
       <c r="B230" s="3"/>
+      <c r="C230" s="1264" t="s">
+        <v>376</v>
+      </c>
       <c r="D230" s="464" t="s">
         <v>376</v>
       </c>
@@ -4992,6 +7164,9 @@
         <v>232</v>
       </c>
       <c r="B231" s="3"/>
+      <c r="C231" s="1266" t="s">
+        <v>375</v>
+      </c>
       <c r="D231" s="466" t="s">
         <v>375</v>
       </c>
@@ -5001,6 +7176,9 @@
         <v>233</v>
       </c>
       <c r="B232" s="3"/>
+      <c r="C232" s="1268" t="s">
+        <v>375</v>
+      </c>
       <c r="D232" s="468" t="s">
         <v>375</v>
       </c>
@@ -5010,6 +7188,9 @@
         <v>234</v>
       </c>
       <c r="B233" s="3"/>
+      <c r="C233" s="1270" t="s">
+        <v>374</v>
+      </c>
       <c r="D233" s="470" t="s">
         <v>374</v>
       </c>
@@ -5019,6 +7200,9 @@
         <v>235</v>
       </c>
       <c r="B234" s="3"/>
+      <c r="C234" s="1272" t="s">
+        <v>375</v>
+      </c>
       <c r="D234" s="472" t="s">
         <v>375</v>
       </c>
@@ -5028,6 +7212,9 @@
         <v>236</v>
       </c>
       <c r="B235" s="3"/>
+      <c r="C235" s="1274" t="s">
+        <v>375</v>
+      </c>
       <c r="D235" s="474" t="s">
         <v>373</v>
       </c>
@@ -5037,6 +7224,9 @@
         <v>237</v>
       </c>
       <c r="B236" s="3"/>
+      <c r="C236" s="1276" t="s">
+        <v>376</v>
+      </c>
       <c r="D236" s="476" t="s">
         <v>373</v>
       </c>
@@ -5046,6 +7236,9 @@
         <v>238</v>
       </c>
       <c r="B237" s="3"/>
+      <c r="C237" s="1278" t="s">
+        <v>375</v>
+      </c>
       <c r="D237" s="790" t="s">
         <v>375</v>
       </c>
@@ -5055,6 +7248,9 @@
         <v>239</v>
       </c>
       <c r="B238" s="3"/>
+      <c r="C238" s="1280" t="s">
+        <v>375</v>
+      </c>
       <c r="D238" s="480" t="s">
         <v>375</v>
       </c>
@@ -5064,6 +7260,9 @@
         <v>240</v>
       </c>
       <c r="B239" s="3"/>
+      <c r="C239" s="1282" t="s">
+        <v>375</v>
+      </c>
       <c r="D239" s="482" t="s">
         <v>375</v>
       </c>
@@ -5073,6 +7272,9 @@
         <v>241</v>
       </c>
       <c r="B240" s="3"/>
+      <c r="C240" s="1284" t="s">
+        <v>375</v>
+      </c>
       <c r="D240" s="484" t="s">
         <v>375</v>
       </c>
@@ -5082,6 +7284,9 @@
         <v>242</v>
       </c>
       <c r="B241" s="3"/>
+      <c r="C241" s="1286" t="s">
+        <v>374</v>
+      </c>
       <c r="D241" s="486" t="s">
         <v>374</v>
       </c>
@@ -5091,6 +7296,9 @@
         <v>243</v>
       </c>
       <c r="B242" s="3"/>
+      <c r="C242" s="1288" t="s">
+        <v>373</v>
+      </c>
       <c r="D242" s="488" t="s">
         <v>373</v>
       </c>
@@ -5100,6 +7308,9 @@
         <v>244</v>
       </c>
       <c r="B243" s="3"/>
+      <c r="C243" s="1290" t="s">
+        <v>374</v>
+      </c>
       <c r="D243" s="490" t="s">
         <v>374</v>
       </c>
@@ -5109,6 +7320,9 @@
         <v>245</v>
       </c>
       <c r="B244" s="3"/>
+      <c r="C244" s="1292" t="s">
+        <v>375</v>
+      </c>
       <c r="D244" s="492" t="s">
         <v>375</v>
       </c>
@@ -5118,6 +7332,9 @@
         <v>246</v>
       </c>
       <c r="B245" s="3"/>
+      <c r="C245" s="1294" t="s">
+        <v>376</v>
+      </c>
       <c r="D245" s="494" t="s">
         <v>373</v>
       </c>
@@ -5127,6 +7344,9 @@
         <v>247</v>
       </c>
       <c r="B246" s="3"/>
+      <c r="C246" s="1296" t="s">
+        <v>375</v>
+      </c>
       <c r="D246" s="496" t="s">
         <v>375</v>
       </c>
@@ -5136,6 +7356,9 @@
         <v>248</v>
       </c>
       <c r="B247" s="3"/>
+      <c r="C247" s="1298" t="s">
+        <v>374</v>
+      </c>
       <c r="D247" s="498" t="s">
         <v>376</v>
       </c>
@@ -5145,6 +7368,9 @@
         <v>249</v>
       </c>
       <c r="B248" s="3"/>
+      <c r="C248" s="1300" t="s">
+        <v>373</v>
+      </c>
       <c r="D248" s="500" t="s">
         <v>376</v>
       </c>
@@ -5154,6 +7380,9 @@
         <v>250</v>
       </c>
       <c r="B249" s="3"/>
+      <c r="C249" s="1302" t="s">
+        <v>375</v>
+      </c>
       <c r="D249" s="502" t="s">
         <v>375</v>
       </c>
@@ -5163,6 +7392,9 @@
         <v>251</v>
       </c>
       <c r="B250" s="3"/>
+      <c r="C250" s="1304" t="s">
+        <v>374</v>
+      </c>
       <c r="D250" s="504" t="s">
         <v>374</v>
       </c>
@@ -5172,6 +7404,9 @@
         <v>252</v>
       </c>
       <c r="B251" s="3"/>
+      <c r="C251" s="1306" t="s">
+        <v>375</v>
+      </c>
       <c r="D251" s="506" t="s">
         <v>375</v>
       </c>
@@ -5181,6 +7416,9 @@
         <v>253</v>
       </c>
       <c r="B252" s="3"/>
+      <c r="C252" s="1308" t="s">
+        <v>375</v>
+      </c>
       <c r="D252" s="508" t="s">
         <v>375</v>
       </c>
@@ -5190,6 +7428,9 @@
         <v>254</v>
       </c>
       <c r="B253" s="3"/>
+      <c r="C253" s="1310" t="s">
+        <v>373</v>
+      </c>
       <c r="D253" s="510" t="s">
         <v>373</v>
       </c>
@@ -5199,6 +7440,9 @@
         <v>255</v>
       </c>
       <c r="B254" s="3"/>
+      <c r="C254" s="1312" t="s">
+        <v>373</v>
+      </c>
       <c r="D254" s="512" t="s">
         <v>373</v>
       </c>
@@ -5208,6 +7452,9 @@
         <v>256</v>
       </c>
       <c r="B255" s="3"/>
+      <c r="C255" s="1314" t="s">
+        <v>374</v>
+      </c>
       <c r="D255" s="514" t="s">
         <v>374</v>
       </c>
@@ -5217,6 +7464,9 @@
         <v>257</v>
       </c>
       <c r="B256" s="3"/>
+      <c r="C256" s="1316" t="s">
+        <v>373</v>
+      </c>
       <c r="D256" s="516" t="s">
         <v>376</v>
       </c>
@@ -5226,6 +7476,9 @@
         <v>258</v>
       </c>
       <c r="B257" s="3"/>
+      <c r="C257" s="1318" t="s">
+        <v>375</v>
+      </c>
       <c r="D257" s="518" t="s">
         <v>375</v>
       </c>
@@ -5235,6 +7488,9 @@
         <v>259</v>
       </c>
       <c r="B258" s="3"/>
+      <c r="C258" s="1320" t="s">
+        <v>375</v>
+      </c>
       <c r="D258" s="520" t="s">
         <v>375</v>
       </c>
@@ -5244,6 +7500,9 @@
         <v>260</v>
       </c>
       <c r="B259" s="3"/>
+      <c r="C259" s="1322" t="s">
+        <v>373</v>
+      </c>
       <c r="D259" s="522" t="s">
         <v>375</v>
       </c>
@@ -5253,6 +7512,9 @@
         <v>261</v>
       </c>
       <c r="B260" s="3"/>
+      <c r="C260" s="1324" t="s">
+        <v>373</v>
+      </c>
       <c r="D260" s="524" t="s">
         <v>376</v>
       </c>
@@ -5262,6 +7524,9 @@
         <v>262</v>
       </c>
       <c r="B261" s="3"/>
+      <c r="C261" s="1326" t="s">
+        <v>373</v>
+      </c>
       <c r="D261" s="526" t="s">
         <v>373</v>
       </c>
@@ -5271,6 +7536,9 @@
         <v>263</v>
       </c>
       <c r="B262" s="3"/>
+      <c r="C262" s="1328" t="s">
+        <v>374</v>
+      </c>
       <c r="D262" s="528" t="s">
         <v>374</v>
       </c>
@@ -5280,6 +7548,9 @@
         <v>264</v>
       </c>
       <c r="B263" s="3"/>
+      <c r="C263" s="1330" t="s">
+        <v>373</v>
+      </c>
       <c r="D263" s="530" t="s">
         <v>373</v>
       </c>
@@ -5289,6 +7560,9 @@
         <v>265</v>
       </c>
       <c r="B264" s="3"/>
+      <c r="C264" s="1332" t="s">
+        <v>375</v>
+      </c>
       <c r="D264" s="532" t="s">
         <v>375</v>
       </c>
@@ -5298,6 +7572,9 @@
         <v>266</v>
       </c>
       <c r="B265" s="3"/>
+      <c r="C265" s="1334" t="s">
+        <v>374</v>
+      </c>
       <c r="D265" s="534" t="s">
         <v>374</v>
       </c>
@@ -5307,6 +7584,9 @@
         <v>267</v>
       </c>
       <c r="B266" s="3"/>
+      <c r="C266" s="1336" t="s">
+        <v>375</v>
+      </c>
       <c r="D266" s="536" t="s">
         <v>375</v>
       </c>
@@ -5316,6 +7596,9 @@
         <v>268</v>
       </c>
       <c r="B267" s="3"/>
+      <c r="C267" s="1338" t="s">
+        <v>373</v>
+      </c>
       <c r="D267" s="538" t="s">
         <v>373</v>
       </c>
@@ -5325,6 +7608,9 @@
         <v>269</v>
       </c>
       <c r="B268" s="3"/>
+      <c r="C268" s="1340" t="s">
+        <v>375</v>
+      </c>
       <c r="D268" s="540" t="s">
         <v>375</v>
       </c>
@@ -5333,6 +7619,9 @@
       <c r="A269" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="C269" s="1342" t="s">
+        <v>375</v>
+      </c>
       <c r="D269" s="542" t="s">
         <v>375</v>
       </c>
@@ -5341,6 +7630,9 @@
       <c r="A270" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="C270" s="1344" t="s">
+        <v>374</v>
+      </c>
       <c r="D270" s="544" t="s">
         <v>374</v>
       </c>
@@ -5349,6 +7641,9 @@
       <c r="A271" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="C271" s="1346" t="s">
+        <v>373</v>
+      </c>
       <c r="D271" s="546" t="s">
         <v>373</v>
       </c>
@@ -5357,6 +7652,9 @@
       <c r="A272" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="C272" s="1348" t="s">
+        <v>373</v>
+      </c>
       <c r="D272" s="548" t="s">
         <v>376</v>
       </c>
@@ -5365,6 +7663,9 @@
       <c r="A273" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="C273" s="1350" t="s">
+        <v>374</v>
+      </c>
       <c r="D273" s="554" t="s">
         <v>373</v>
       </c>
@@ -5373,6 +7674,9 @@
       <c r="A274" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="C274" s="1352" t="s">
+        <v>373</v>
+      </c>
       <c r="D274" s="556" t="s">
         <v>373</v>
       </c>
@@ -5381,6 +7685,9 @@
       <c r="A275" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C275" s="1354" t="s">
+        <v>374</v>
+      </c>
       <c r="D275" s="558" t="s">
         <v>374</v>
       </c>
@@ -5389,6 +7696,9 @@
       <c r="A276" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="C276" s="1356" t="s">
+        <v>375</v>
+      </c>
       <c r="D276" s="792" t="s">
         <v>375</v>
       </c>
@@ -5397,6 +7707,9 @@
       <c r="A277" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="C277" s="1358" t="s">
+        <v>373</v>
+      </c>
       <c r="D277" s="562" t="s">
         <v>373</v>
       </c>
@@ -5405,6 +7718,9 @@
       <c r="A278" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="C278" s="1360" t="s">
+        <v>375</v>
+      </c>
       <c r="D278" s="564" t="s">
         <v>375</v>
       </c>
@@ -5413,6 +7729,9 @@
       <c r="A279" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="C279" s="1362" t="s">
+        <v>375</v>
+      </c>
       <c r="D279" s="566" t="s">
         <v>375</v>
       </c>
@@ -5421,6 +7740,9 @@
       <c r="A280" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="C280" s="1364" t="s">
+        <v>375</v>
+      </c>
       <c r="D280" s="568" t="s">
         <v>375</v>
       </c>
@@ -5429,6 +7751,9 @@
       <c r="A281" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="C281" s="1366" t="s">
+        <v>375</v>
+      </c>
       <c r="D281" s="570" t="s">
         <v>375</v>
       </c>
@@ -5437,6 +7762,9 @@
       <c r="A282" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="C282" s="1368" t="s">
+        <v>375</v>
+      </c>
       <c r="D282" s="572" t="s">
         <v>375</v>
       </c>
@@ -5445,6 +7773,9 @@
       <c r="A283" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="C283" s="1370" t="s">
+        <v>373</v>
+      </c>
       <c r="D283" s="574" t="s">
         <v>373</v>
       </c>
@@ -5453,6 +7784,9 @@
       <c r="A284" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="C284" s="1372" t="s">
+        <v>375</v>
+      </c>
       <c r="D284" s="576" t="s">
         <v>375</v>
       </c>
@@ -5461,6 +7795,9 @@
       <c r="A285" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="C285" s="1374" t="s">
+        <v>373</v>
+      </c>
       <c r="D285" s="578" t="s">
         <v>373</v>
       </c>
@@ -5469,6 +7806,9 @@
       <c r="A286" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="C286" s="1376" t="s">
+        <v>374</v>
+      </c>
       <c r="D286" s="580" t="s">
         <v>374</v>
       </c>
@@ -5477,6 +7817,9 @@
       <c r="A287" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="C287" s="1378" t="s">
+        <v>375</v>
+      </c>
       <c r="D287" s="582" t="s">
         <v>375</v>
       </c>
@@ -5485,6 +7828,9 @@
       <c r="A288" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="C288" s="1380" t="s">
+        <v>375</v>
+      </c>
       <c r="D288" s="584" t="s">
         <v>375</v>
       </c>
@@ -5493,6 +7839,9 @@
       <c r="A289" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="C289" s="1382" t="s">
+        <v>375</v>
+      </c>
       <c r="D289" s="586" t="s">
         <v>375</v>
       </c>
@@ -5501,6 +7850,9 @@
       <c r="A290" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="C290" s="1384" t="s">
+        <v>375</v>
+      </c>
       <c r="D290" s="588" t="s">
         <v>375</v>
       </c>
@@ -5509,6 +7861,9 @@
       <c r="A291" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="C291" s="1386" t="s">
+        <v>375</v>
+      </c>
       <c r="D291" s="590" t="s">
         <v>375</v>
       </c>
@@ -5517,6 +7872,9 @@
       <c r="A292" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="C292" s="1388" t="s">
+        <v>375</v>
+      </c>
       <c r="D292" s="794" t="s">
         <v>375</v>
       </c>
@@ -5525,6 +7883,9 @@
       <c r="A293" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="C293" s="1390" t="s">
+        <v>374</v>
+      </c>
       <c r="D293" s="594" t="s">
         <v>374</v>
       </c>
@@ -5533,6 +7894,9 @@
       <c r="A294" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="C294" s="1392" t="s">
+        <v>373</v>
+      </c>
       <c r="D294" s="596" t="s">
         <v>373</v>
       </c>
@@ -5541,6 +7905,9 @@
       <c r="A295" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C295" s="1394" t="s">
+        <v>375</v>
+      </c>
       <c r="D295" s="796" t="s">
         <v>375</v>
       </c>
@@ -5549,6 +7916,9 @@
       <c r="A296" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="C296" s="1396" t="s">
+        <v>373</v>
+      </c>
       <c r="D296" s="600" t="s">
         <v>373</v>
       </c>
@@ -5557,6 +7927,9 @@
       <c r="A297" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="C297" s="1398" t="s">
+        <v>375</v>
+      </c>
       <c r="D297" s="798" t="s">
         <v>375</v>
       </c>
@@ -5565,6 +7938,9 @@
       <c r="A298" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="C298" s="1400" t="s">
+        <v>374</v>
+      </c>
       <c r="D298" s="604" t="s">
         <v>373</v>
       </c>
@@ -5573,6 +7949,9 @@
       <c r="A299" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="C299" s="1402" t="s">
+        <v>373</v>
+      </c>
       <c r="D299" s="606" t="s">
         <v>373</v>
       </c>
@@ -5581,6 +7960,9 @@
       <c r="A300" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C300" s="1404" t="s">
+        <v>374</v>
+      </c>
       <c r="D300" s="608" t="s">
         <v>374</v>
       </c>
@@ -5589,6 +7971,9 @@
       <c r="A301" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="C301" s="1406" t="s">
+        <v>374</v>
+      </c>
       <c r="D301" s="610" t="s">
         <v>374</v>
       </c>
@@ -5597,6 +7982,9 @@
       <c r="A302" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="C302" s="1408" t="s">
+        <v>375</v>
+      </c>
       <c r="D302" s="612" t="s">
         <v>375</v>
       </c>
@@ -5605,6 +7993,9 @@
       <c r="A303" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="C303" s="1410" t="s">
+        <v>375</v>
+      </c>
       <c r="D303" s="614" t="s">
         <v>375</v>
       </c>
@@ -5613,6 +8004,9 @@
       <c r="A304" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="C304" s="1412" t="s">
+        <v>376</v>
+      </c>
       <c r="D304" s="616" t="s">
         <v>376</v>
       </c>
@@ -5621,6 +8015,9 @@
       <c r="A305" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="C305" s="1414" t="s">
+        <v>375</v>
+      </c>
       <c r="D305" s="618" t="s">
         <v>375</v>
       </c>
@@ -5629,6 +8026,9 @@
       <c r="A306" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="C306" s="1416" t="s">
+        <v>374</v>
+      </c>
       <c r="D306" s="620" t="s">
         <v>374</v>
       </c>
@@ -5637,6 +8037,9 @@
       <c r="A307" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="C307" s="1418" t="s">
+        <v>375</v>
+      </c>
       <c r="D307" s="622" t="s">
         <v>375</v>
       </c>
@@ -5645,6 +8048,9 @@
       <c r="A308" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="C308" s="1420" t="s">
+        <v>375</v>
+      </c>
       <c r="D308" s="624" t="s">
         <v>375</v>
       </c>
@@ -5653,6 +8059,9 @@
       <c r="A309" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="C309" s="1422" t="s">
+        <v>374</v>
+      </c>
       <c r="D309" s="626" t="s">
         <v>374</v>
       </c>
@@ -5661,6 +8070,9 @@
       <c r="A310" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="C310" s="1424" t="s">
+        <v>374</v>
+      </c>
       <c r="D310" s="628" t="s">
         <v>373</v>
       </c>
@@ -5669,6 +8081,9 @@
       <c r="A311" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="C311" s="1426" t="s">
+        <v>375</v>
+      </c>
       <c r="D311" s="630" t="s">
         <v>375</v>
       </c>
@@ -5677,6 +8092,9 @@
       <c r="A312" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="C312" s="1428" t="s">
+        <v>373</v>
+      </c>
       <c r="D312" s="632" t="s">
         <v>373</v>
       </c>
@@ -5685,6 +8103,9 @@
       <c r="A313" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="C313" s="1430" t="s">
+        <v>373</v>
+      </c>
       <c r="D313" s="634" t="s">
         <v>375</v>
       </c>
@@ -5693,6 +8114,9 @@
       <c r="A314" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="C314" s="1432" t="s">
+        <v>373</v>
+      </c>
       <c r="D314" s="636" t="s">
         <v>373</v>
       </c>
@@ -5701,6 +8125,9 @@
       <c r="A315" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="C315" s="1434" t="s">
+        <v>375</v>
+      </c>
       <c r="D315" s="638" t="s">
         <v>375</v>
       </c>
@@ -5709,6 +8136,9 @@
       <c r="A316" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="C316" s="1436" t="s">
+        <v>375</v>
+      </c>
       <c r="D316" s="640" t="s">
         <v>375</v>
       </c>
@@ -5717,6 +8147,9 @@
       <c r="A317" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="C317" s="1438" t="s">
+        <v>373</v>
+      </c>
       <c r="D317" s="642" t="s">
         <v>373</v>
       </c>
@@ -5725,6 +8158,9 @@
       <c r="A318" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="C318" s="1440" t="s">
+        <v>375</v>
+      </c>
       <c r="D318" s="644" t="s">
         <v>375</v>
       </c>
@@ -5733,6 +8169,9 @@
       <c r="A319" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="C319" s="1442" t="s">
+        <v>373</v>
+      </c>
       <c r="D319" s="646" t="s">
         <v>373</v>
       </c>
@@ -5741,6 +8180,9 @@
       <c r="A320" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="C320" s="1444" t="s">
+        <v>376</v>
+      </c>
       <c r="D320" s="648" t="s">
         <v>376</v>
       </c>
@@ -5749,6 +8191,9 @@
       <c r="A321" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="C321" s="1446" t="s">
+        <v>374</v>
+      </c>
       <c r="D321" s="650" t="s">
         <v>374</v>
       </c>
@@ -5757,6 +8202,9 @@
       <c r="A322" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="C322" s="1448" t="s">
+        <v>375</v>
+      </c>
       <c r="D322" s="652" t="s">
         <v>375</v>
       </c>
@@ -5765,6 +8213,9 @@
       <c r="A323" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="C323" s="1450" t="s">
+        <v>374</v>
+      </c>
       <c r="D323" s="654" t="s">
         <v>374</v>
       </c>
@@ -5773,6 +8224,9 @@
       <c r="A324" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="C324" s="1452" t="s">
+        <v>375</v>
+      </c>
       <c r="D324" s="656" t="s">
         <v>375</v>
       </c>
@@ -5781,6 +8235,9 @@
       <c r="A325" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="C325" s="1454" t="s">
+        <v>373</v>
+      </c>
       <c r="D325" s="658" t="s">
         <v>373</v>
       </c>
@@ -5789,6 +8246,9 @@
       <c r="A326" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="C326" s="1456" t="s">
+        <v>375</v>
+      </c>
       <c r="D326" s="660" t="s">
         <v>375</v>
       </c>
@@ -5797,6 +8257,9 @@
       <c r="A327" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="C327" s="1458" t="s">
+        <v>373</v>
+      </c>
       <c r="D327" s="662" t="s">
         <v>373</v>
       </c>
@@ -5805,6 +8268,9 @@
       <c r="A328" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="C328" s="1460" t="s">
+        <v>375</v>
+      </c>
       <c r="D328" s="664" t="s">
         <v>375</v>
       </c>
@@ -5813,6 +8279,9 @@
       <c r="A329" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="C329" s="1462" t="s">
+        <v>373</v>
+      </c>
       <c r="D329" s="666" t="s">
         <v>373</v>
       </c>
@@ -5821,6 +8290,9 @@
       <c r="A330" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="C330" s="1464" t="s">
+        <v>373</v>
+      </c>
       <c r="D330" s="668" t="s">
         <v>373</v>
       </c>
@@ -5829,6 +8301,9 @@
       <c r="A331" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="C331" s="1466" t="s">
+        <v>373</v>
+      </c>
       <c r="D331" s="670" t="s">
         <v>373</v>
       </c>
@@ -5837,6 +8312,9 @@
       <c r="A332" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="C332" s="1468" t="s">
+        <v>373</v>
+      </c>
       <c r="D332" s="672" t="s">
         <v>373</v>
       </c>
@@ -5845,6 +8323,9 @@
       <c r="A333" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="C333" s="1470" t="s">
+        <v>374</v>
+      </c>
       <c r="D333" s="674" t="s">
         <v>374</v>
       </c>
@@ -5853,6 +8334,9 @@
       <c r="A334" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="C334" s="1472" t="s">
+        <v>373</v>
+      </c>
       <c r="D334" s="676" t="s">
         <v>376</v>
       </c>
@@ -5861,6 +8345,9 @@
       <c r="A335" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="C335" s="1474" t="s">
+        <v>375</v>
+      </c>
       <c r="D335" s="678" t="s">
         <v>375</v>
       </c>
@@ -5869,6 +8356,9 @@
       <c r="A336" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="C336" s="1476" t="s">
+        <v>373</v>
+      </c>
       <c r="D336" s="680" t="s">
         <v>373</v>
       </c>
@@ -5877,6 +8367,9 @@
       <c r="A337" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="C337" s="1478" t="s">
+        <v>375</v>
+      </c>
       <c r="D337" s="682" t="s">
         <v>375</v>
       </c>
@@ -5885,6 +8378,9 @@
       <c r="A338" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="C338" s="1480" t="s">
+        <v>374</v>
+      </c>
       <c r="D338" s="684" t="s">
         <v>376</v>
       </c>
@@ -5893,6 +8389,9 @@
       <c r="A339" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="C339" s="1482" t="s">
+        <v>373</v>
+      </c>
       <c r="D339" s="686" t="s">
         <v>373</v>
       </c>
@@ -5901,6 +8400,9 @@
       <c r="A340" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="C340" s="1484" t="s">
+        <v>375</v>
+      </c>
       <c r="D340" s="688" t="s">
         <v>375</v>
       </c>
@@ -5909,6 +8411,9 @@
       <c r="A341" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="C341" s="1486" t="s">
+        <v>375</v>
+      </c>
       <c r="D341" s="690" t="s">
         <v>375</v>
       </c>
@@ -5917,6 +8422,9 @@
       <c r="A342" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="C342" s="1488" t="s">
+        <v>374</v>
+      </c>
       <c r="D342" s="692" t="s">
         <v>373</v>
       </c>
@@ -5925,6 +8433,9 @@
       <c r="A343" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="C343" s="1490" t="s">
+        <v>373</v>
+      </c>
       <c r="D343" s="694" t="s">
         <v>373</v>
       </c>
@@ -5933,6 +8444,9 @@
       <c r="A344" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="C344" s="1492" t="s">
+        <v>375</v>
+      </c>
       <c r="D344" s="696" t="s">
         <v>375</v>
       </c>
@@ -5941,6 +8455,9 @@
       <c r="A345" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="C345" s="1494" t="s">
+        <v>374</v>
+      </c>
       <c r="D345" s="698" t="s">
         <v>374</v>
       </c>
@@ -5949,6 +8466,9 @@
       <c r="A346" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="C346" s="1496" t="s">
+        <v>375</v>
+      </c>
       <c r="D346" s="700" t="s">
         <v>375</v>
       </c>
@@ -5957,6 +8477,9 @@
       <c r="A347" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="C347" s="1498" t="s">
+        <v>373</v>
+      </c>
       <c r="D347" s="702" t="s">
         <v>373</v>
       </c>
@@ -5965,6 +8488,9 @@
       <c r="A348" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="C348" s="1500" t="s">
+        <v>373</v>
+      </c>
       <c r="D348" s="704" t="s">
         <v>376</v>
       </c>
@@ -5973,6 +8499,9 @@
       <c r="A349" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="C349" s="1502" t="s">
+        <v>375</v>
+      </c>
       <c r="D349" s="706" t="s">
         <v>375</v>
       </c>
@@ -5981,6 +8510,9 @@
       <c r="A350" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="C350" s="1504" t="s">
+        <v>375</v>
+      </c>
       <c r="D350" s="708" t="s">
         <v>375</v>
       </c>
@@ -5989,6 +8521,9 @@
       <c r="A351" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="C351" s="1506" t="s">
+        <v>374</v>
+      </c>
       <c r="D351" s="710" t="s">
         <v>374</v>
       </c>
@@ -5997,6 +8532,9 @@
       <c r="A352" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="C352" s="1508" t="s">
+        <v>375</v>
+      </c>
       <c r="D352" s="712" t="s">
         <v>375</v>
       </c>
@@ -6005,6 +8543,9 @@
       <c r="A353" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="C353" s="1510" t="s">
+        <v>373</v>
+      </c>
       <c r="D353" s="714" t="s">
         <v>373</v>
       </c>
@@ -6013,6 +8554,9 @@
       <c r="A354" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="C354" s="1512" t="s">
+        <v>373</v>
+      </c>
       <c r="D354" s="716" t="s">
         <v>373</v>
       </c>
@@ -6021,6 +8565,9 @@
       <c r="A355" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="C355" s="1514" t="s">
+        <v>373</v>
+      </c>
       <c r="D355" s="718" t="s">
         <v>373</v>
       </c>
@@ -6029,6 +8576,9 @@
       <c r="A356" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="C356" s="1516" t="s">
+        <v>373</v>
+      </c>
       <c r="D356" s="720" t="s">
         <v>373</v>
       </c>
@@ -6037,6 +8587,9 @@
       <c r="A357" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="C357" s="1518" t="s">
+        <v>373</v>
+      </c>
       <c r="D357" s="722" t="s">
         <v>373</v>
       </c>
@@ -6045,6 +8598,9 @@
       <c r="A358" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="C358" s="1520" t="s">
+        <v>375</v>
+      </c>
       <c r="D358" s="724" t="s">
         <v>375</v>
       </c>
@@ -6053,6 +8609,9 @@
       <c r="A359" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="C359" s="1522" t="s">
+        <v>375</v>
+      </c>
       <c r="D359" s="726" t="s">
         <v>375</v>
       </c>
@@ -6061,6 +8620,9 @@
       <c r="A360" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="C360" s="1524" t="s">
+        <v>375</v>
+      </c>
       <c r="D360" s="728" t="s">
         <v>375</v>
       </c>
@@ -6069,6 +8631,9 @@
       <c r="A361" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="C361" s="1526" t="s">
+        <v>374</v>
+      </c>
       <c r="D361" s="730" t="s">
         <v>374</v>
       </c>
@@ -6077,6 +8642,9 @@
       <c r="A362" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="C362" s="1528" t="s">
+        <v>375</v>
+      </c>
       <c r="D362" s="732" t="s">
         <v>373</v>
       </c>
@@ -6085,6 +8653,9 @@
       <c r="A363" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="C363" s="1530" t="s">
+        <v>373</v>
+      </c>
       <c r="D363" s="734" t="s">
         <v>373</v>
       </c>
@@ -6093,6 +8664,9 @@
       <c r="A364" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="C364" s="1532" t="s">
+        <v>374</v>
+      </c>
       <c r="D364" s="736" t="s">
         <v>374</v>
       </c>
@@ -6101,6 +8675,9 @@
       <c r="A365" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="C365" s="1534" t="s">
+        <v>373</v>
+      </c>
       <c r="D365" s="738" t="s">
         <v>373</v>
       </c>
@@ -6109,6 +8686,9 @@
       <c r="A366" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="C366" s="1536" t="s">
+        <v>375</v>
+      </c>
       <c r="D366" s="740" t="s">
         <v>375</v>
       </c>
@@ -6117,6 +8697,9 @@
       <c r="A367" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="C367" s="1538" t="s">
+        <v>375</v>
+      </c>
       <c r="D367" s="742" t="s">
         <v>375</v>
       </c>
@@ -6125,6 +8708,9 @@
       <c r="A368" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="C368" s="1540" t="s">
+        <v>375</v>
+      </c>
       <c r="D368" s="744" t="s">
         <v>375</v>
       </c>
@@ -6133,6 +8719,9 @@
       <c r="A369" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="C369" s="1542" t="s">
+        <v>375</v>
+      </c>
       <c r="D369" s="746" t="s">
         <v>375</v>
       </c>
@@ -6140,6 +8729,9 @@
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>371</v>
+      </c>
+      <c r="C370" s="1544" t="s">
+        <v>375</v>
       </c>
       <c r="D370" s="748" t="s">
         <v>373</v>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -5,27 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mreza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bbf7dfae3178187/Skrivbord/particle_trajectories_labeling_tool/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E20ADC-4A23-4934-A181-5EDF83BC003F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{02E20ADC-4A23-4934-A181-5EDF83BC003F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C4BFD4E-D4A7-4BD5-ABA9-B6EAF6CFB765}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1392" windowWidth="23040" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15130" yWindow="1700" windowWidth="3770" windowHeight="7360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="377">
   <si>
     <t>images</t>
   </si>
@@ -1162,7 +1157,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3778,10 +3780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="370"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4158,9 +4161,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="370" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="370" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4FECAFB9-E8C0-4D08-A695-33CB51E89195}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4176,7 +4182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4475,27 +4481,27 @@
   <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="4.1796875" customWidth="1"/>
     <col min="8" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="374" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -4507,14 +4513,16 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>373</v>
       </c>
@@ -4524,14 +4532,16 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D3" s="331" t="s">
         <v>375</v>
       </c>
@@ -4541,14 +4551,16 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>374</v>
       </c>
@@ -4558,14 +4570,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>375</v>
       </c>
@@ -4575,14 +4589,16 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D6" s="332" t="s">
         <v>375</v>
       </c>
@@ -4592,14 +4608,16 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>373</v>
       </c>
@@ -4609,3632 +4627,4720 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D8" s="333" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C9" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D9" s="313" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C10" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D10" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C11" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C12" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D12" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C13" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D13" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C14" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D14" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C15" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C16" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D16" s="314" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C17" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C18" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D18" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C19" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D19" s="17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C20" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D20" s="18" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C21" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D21" s="19" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C22" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C23" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D23" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C24" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D24" s="22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C25" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D25" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C26" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D26" s="24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C27" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D27" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C28" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D28" s="26" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C29" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D29" s="27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>376</v>
       </c>
+      <c r="C30" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D30" s="334" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C31" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D31" s="28" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C32" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D32" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C33" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D33" s="30" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C34" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D34" s="315" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C35" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D35" s="31" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C36" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D36" s="32" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C37" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D37" s="335" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C38" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D38" s="336" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C39" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D39" s="33" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C40" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" s="34" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C41" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" s="35" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C42" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C43" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D43" s="37" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C44" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C45" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D45" s="39" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C46" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" s="40" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C47" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" s="41" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C48" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D48" s="337" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C49" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" s="42" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C50" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D50" s="43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C51" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D51" s="44" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C52" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D52" s="338" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
+      <c r="C53" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D53" s="316" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
+      <c r="C54" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D54" s="45" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
+      <c r="C55" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D55" s="46" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
+      <c r="C56" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D56" s="47" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
+      <c r="C57" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D57" s="48" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
+      <c r="C58" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D58" s="49" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
+      <c r="C59" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D59" s="50" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
+      <c r="C60" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D60" s="51" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
+      <c r="C61" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D61" s="52" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
+      <c r="C62" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D62" s="53" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
+      <c r="C63" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D63" s="54" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="3"/>
+      <c r="C64" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D64" s="55" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="3"/>
+      <c r="C65" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D65" s="56" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="3"/>
+      <c r="C66" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D66" s="57" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="3"/>
+      <c r="C67" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D67" s="339" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="3"/>
+      <c r="C68" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D68" s="340" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="3"/>
+      <c r="C69" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D69" s="58" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="3"/>
+      <c r="C70" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D70" s="59" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="3"/>
+      <c r="C71" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D71" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
+      <c r="C72" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D72" s="61" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="3"/>
+      <c r="C73" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D73" s="62" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="3"/>
+      <c r="C74" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D74" s="63" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="3"/>
+      <c r="C75" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D75" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="3"/>
+      <c r="C76" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D76" s="65" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="3"/>
+      <c r="C77" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D77" s="66" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="3"/>
+      <c r="C78" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D78" s="67" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="3"/>
+      <c r="C79" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D79" s="68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="3"/>
+      <c r="C80" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D80" s="341" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="3"/>
+      <c r="C81" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D81" s="69" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="3"/>
+      <c r="C82" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D82" s="70" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="3"/>
+      <c r="C83" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D83" s="71" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="3"/>
+      <c r="C84" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D84" s="72" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="3"/>
+      <c r="C85" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D85" s="73" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="3"/>
+      <c r="C86" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D86" s="342" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="3"/>
+      <c r="C87" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D87" s="74" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="3"/>
+      <c r="C88" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D88" s="75" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="3"/>
+      <c r="C89" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D89" s="76" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="3"/>
+      <c r="C90" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D90" s="77" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="3"/>
+      <c r="C91" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D91" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="3"/>
+      <c r="C92" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D92" s="79" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="3"/>
+      <c r="C93" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D93" s="343" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="3"/>
+      <c r="C94" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D94" s="344" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="3"/>
+      <c r="C95" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D95" s="80" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="3"/>
+      <c r="C96" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D96" s="81" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="3"/>
+      <c r="C97" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D97" s="82" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="3"/>
+      <c r="C98" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D98" s="83" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="3"/>
+      <c r="C99" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D99" s="84" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="3"/>
+      <c r="C100" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D100" s="85" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="3"/>
+      <c r="C101" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D101" s="86" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="3"/>
+      <c r="C102" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D102" s="317" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="3"/>
+      <c r="C103" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D103" s="87" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="3"/>
+      <c r="C104" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D104" s="88" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="3"/>
+      <c r="C105" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D105" s="345" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="3"/>
+      <c r="C106" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D106" s="89" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="3"/>
+      <c r="C107" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D107" s="346" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="3"/>
+      <c r="C108" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D108" s="90" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="3"/>
+      <c r="C109" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D109" s="91" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="3"/>
+      <c r="C110" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D110" s="347" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="3"/>
+      <c r="C111" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D111" s="92" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="3"/>
+      <c r="C112" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D112" s="93" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="3"/>
+      <c r="C113" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D113" s="94" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="3"/>
+      <c r="C114" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D114" s="95" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="3"/>
+      <c r="C115" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D115" s="348" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="3"/>
+      <c r="C116" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D116" s="96" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="3"/>
+      <c r="C117" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D117" s="97" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="3"/>
+      <c r="C118" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D118" s="98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="3"/>
+      <c r="C119" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D119" s="99" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="3"/>
+      <c r="C120" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D120" s="100" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="3"/>
+      <c r="C121" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D121" s="101" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="3"/>
+      <c r="C122" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D122" s="102" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="3"/>
+      <c r="C123" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D123" s="318" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="3"/>
+      <c r="C124" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D124" s="103" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="3"/>
+      <c r="C125" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D125" s="104" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="3"/>
+      <c r="C126" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D126" s="319" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="3"/>
+      <c r="C127" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D127" s="105" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="3"/>
+      <c r="C128" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D128" s="106" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="3"/>
+      <c r="C129" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D129" s="107" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="3"/>
+      <c r="C130" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D130" s="320" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="3"/>
+      <c r="C131" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D131" s="349" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="3"/>
+      <c r="C132" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D132" s="108" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="3"/>
+      <c r="C133" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D133" s="109" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="3"/>
+      <c r="C134" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D134" s="110" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="3"/>
+      <c r="C135" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D135" s="350" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="3"/>
+      <c r="C136" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D136" s="111" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="3"/>
+      <c r="C137" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D137" s="112" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="3"/>
+      <c r="C138" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D138" s="113" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="3"/>
+      <c r="C139" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D139" s="114" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="3"/>
+      <c r="C140" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D140" s="115" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B141" s="3"/>
+      <c r="C141" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D141" s="351" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="3"/>
+      <c r="C142" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D142" s="116" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="3"/>
+      <c r="C143" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D143" s="352" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="3"/>
+      <c r="C144" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D144" s="353" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="3"/>
+      <c r="C145" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D145" s="321" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="3"/>
+      <c r="C146" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D146" s="117" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="3"/>
+      <c r="C147" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D147" s="118" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="3"/>
+      <c r="C148" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D148" s="354" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="3"/>
+      <c r="C149" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D149" s="119" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="3"/>
+      <c r="C150" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D150" s="120" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="3"/>
+      <c r="C151" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D151" s="121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="3"/>
+      <c r="C152" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D152" s="122" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="3"/>
+      <c r="C153" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D153" s="123" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="3"/>
+      <c r="C154" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D154" s="124" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="3"/>
+      <c r="C155" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D155" s="322" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="3"/>
+      <c r="C156" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D156" s="125" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="3"/>
+      <c r="C157" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D157" s="355" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="3"/>
+      <c r="C158" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D158" s="126" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="3"/>
+      <c r="C159" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D159" s="127" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="3"/>
+      <c r="C160" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D160" s="128" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="3"/>
+      <c r="C161" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D161" s="129" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="3"/>
+      <c r="C162" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D162" s="130" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="3"/>
+      <c r="C163" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D163" s="131" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="3"/>
+      <c r="C164" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D164" s="132" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="3"/>
+      <c r="C165" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D165" s="323" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="3"/>
+      <c r="C166" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D166" s="133" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B167" s="3"/>
+      <c r="C167" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D167" s="134" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="3"/>
+      <c r="C168" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D168" s="135" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="3"/>
+      <c r="C169" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D169" s="136" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="3"/>
+      <c r="C170" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D170" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="3"/>
+      <c r="C171" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D171" s="138" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="3"/>
+      <c r="C172" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D172" s="139" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="3"/>
+      <c r="C173" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D173" s="140" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="3"/>
+      <c r="C174" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D174" s="141" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="3"/>
+      <c r="C175" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D175" s="142" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="3"/>
+      <c r="C176" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D176" s="143" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="3"/>
+      <c r="C177" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D177" s="144" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="3"/>
+      <c r="C178" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D178" s="145" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="3"/>
+      <c r="C179" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D179" s="324" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="3"/>
+      <c r="C180" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D180" s="356" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="3"/>
+      <c r="C181" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D181" s="146" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="3"/>
+      <c r="C182" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D182" s="147" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="3"/>
+      <c r="C183" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D183" s="357" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="3"/>
+      <c r="C184" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D184" s="148" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="3"/>
+      <c r="C185" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D185" s="149" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="3"/>
+      <c r="C186" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D186" s="150" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B187" s="3"/>
+      <c r="C187" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D187" s="325" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="3"/>
+      <c r="C188" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D188" s="151" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="3"/>
+      <c r="C189" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D189" s="152" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="3"/>
+      <c r="C190" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D190" s="153" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="3"/>
+      <c r="C191" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D191" s="154" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="3"/>
+      <c r="C192" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D192" s="358" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="3"/>
+      <c r="C193" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D193" s="155" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B194" s="3"/>
+      <c r="C194" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D194" s="359" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="3"/>
+      <c r="C195" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D195" s="156" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="3"/>
+      <c r="C196" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D196" s="157" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B197" s="3"/>
+      <c r="C197" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D197" s="158" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="3"/>
+      <c r="C198" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D198" s="159" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B199" s="3"/>
+      <c r="C199" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D199" s="160" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B200" s="3"/>
+      <c r="C200" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D200" s="161" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="3"/>
+      <c r="C201" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D201" s="360" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="3"/>
+      <c r="C202" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D202" s="162" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="3"/>
+      <c r="C203" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D203" s="163" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="3"/>
+      <c r="C204" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D204" s="361" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B205" s="3"/>
+      <c r="C205" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D205" s="164" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B206" s="3"/>
+      <c r="C206" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D206" s="165" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="3"/>
+      <c r="C207" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D207" s="166" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B208" s="3"/>
+      <c r="C208" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D208" s="167" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="3"/>
+      <c r="C209" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D209" s="168" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B210" s="3"/>
+      <c r="C210" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D210" s="169" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B211" s="3"/>
+      <c r="C211" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D211" s="170" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="3"/>
+      <c r="C212" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D212" s="171" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B213" s="3"/>
+      <c r="C213" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D213" s="362" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="3"/>
+      <c r="C214" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D214" s="172" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B215" s="3"/>
+      <c r="C215" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D215" s="173" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B216" s="3"/>
+      <c r="C216" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D216" s="174" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B217" s="3"/>
+      <c r="C217" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D217" s="175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B218" s="3"/>
+      <c r="C218" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D218" s="176" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B219" s="3"/>
+      <c r="C219" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D219" s="177" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B220" s="3"/>
+      <c r="C220" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D220" s="363" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="3"/>
+      <c r="C221" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D221" s="178" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B222" s="3"/>
+      <c r="C222" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D222" s="179" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B223" s="3"/>
+      <c r="C223" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D223" s="180" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B224" s="3"/>
+      <c r="C224" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D224" s="181" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B225" s="3"/>
+      <c r="C225" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D225" s="182" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B226" s="3"/>
+      <c r="C226" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D226" s="183" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B227" s="3"/>
+      <c r="C227" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D227" s="184" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B228" s="3"/>
+      <c r="C228" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D228" s="185" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B229" s="3"/>
+      <c r="C229" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D229" s="364" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B230" s="3"/>
+      <c r="C230" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D230" s="186" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B231" s="3"/>
+      <c r="C231" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D231" s="187" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B232" s="3"/>
+      <c r="C232" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D232" s="188" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B233" s="3"/>
+      <c r="C233" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D233" s="189" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B234" s="3"/>
+      <c r="C234" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D234" s="190" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B235" s="3"/>
+      <c r="C235" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D235" s="365" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B236" s="3"/>
+      <c r="C236" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D236" s="366" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="3"/>
+      <c r="C237" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D237" s="326" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="3"/>
+      <c r="C238" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D238" s="191" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="3"/>
+      <c r="C239" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D239" s="192" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B240" s="3"/>
+      <c r="C240" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D240" s="193" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="3"/>
+      <c r="C241" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D241" s="194" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B242" s="3"/>
+      <c r="C242" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D242" s="195" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="3"/>
+      <c r="C243" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D243" s="196" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B244" s="3"/>
+      <c r="C244" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D244" s="197" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="3"/>
+      <c r="C245" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D245" s="198" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="3"/>
+      <c r="C246" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D246" s="199" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B247" s="3"/>
+      <c r="C247" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D247" s="200" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B248" s="3"/>
+      <c r="C248" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D248" s="201" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B249" s="3"/>
+      <c r="C249" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D249" s="367" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B250" s="3"/>
+      <c r="C250" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D250" s="202" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B251" s="3"/>
+      <c r="C251" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D251" s="203" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B252" s="3"/>
+      <c r="C252" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D252" s="204" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B253" s="3"/>
+      <c r="C253" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D253" s="205" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B254" s="3"/>
+      <c r="C254" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D254" s="206" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B255" s="3"/>
+      <c r="C255" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D255" s="207" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B256" s="3"/>
+      <c r="C256" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D256" s="208" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B257" s="3"/>
+      <c r="C257" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D257" s="368" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B258" s="3"/>
+      <c r="C258" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D258" s="369" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B259" s="3"/>
+      <c r="C259" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D259" s="209" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B260" s="3"/>
+      <c r="C260" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D260" s="210" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B261" s="3"/>
+      <c r="C261" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D261" s="211" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B262" s="3"/>
+      <c r="C262" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D262" s="212" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B263" s="3"/>
+      <c r="C263" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D263" s="213" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B264" s="3"/>
+      <c r="C264" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D264" s="214" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B265" s="3"/>
+      <c r="C265" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D265" s="215" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B266" s="3"/>
+      <c r="C266" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D266" s="216" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B267" s="3"/>
+      <c r="C267" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D267" s="217" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B268" s="3"/>
+      <c r="C268" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D268" s="218" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="C269" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D269" s="219" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="C270" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D270" s="220" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="C271" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D271" s="221" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="C272" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D272" s="222" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="C273" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D273" s="223" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="C274" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D274" s="224" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C275" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D275" s="225" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="C276" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D276" s="327" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="C277" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D277" s="226" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="C278" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D278" s="227" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="C279" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D279" s="228" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="C280" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D280" s="229" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="C281" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D281" s="230" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="C282" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D282" s="231" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="C283" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D283" s="232" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="C284" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D284" s="233" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="C285" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D285" s="234" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="C286" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D286" s="235" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="C287" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D287" s="236" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="C288" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D288" s="237" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="C289" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D289" s="238" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="C290" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D290" s="239" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="C291" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D291" s="240" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="C292" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D292" s="328" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="C293" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D293" s="241" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="C294" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D294" s="242" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C295" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D295" s="329" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="C296" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D296" s="243" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="C297" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D297" s="330" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="C298" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D298" s="244" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="C299" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D299" s="245" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C300" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D300" s="246" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="C301" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D301" s="247" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="C302" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D302" s="248" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="C303" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D303" s="249" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="C304" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D304" s="250" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="C305" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D305" s="251" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="C306" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D306" s="252" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="C307" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D307" s="253" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="C308" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D308" s="254" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="C309" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D309" s="255" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="C310" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D310" s="256" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="C311" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D311" s="257" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="C312" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D312" s="258" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="C313" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D313" s="370" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="C314" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D314" s="259" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="C315" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D315" s="260" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="C316" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D316" s="261" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="C317" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D317" s="262" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="C318" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D318" s="263" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="C319" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D319" s="264" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="C320" s="375" t="s">
+        <v>376</v>
+      </c>
       <c r="D320" s="265" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="C321" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D321" s="266" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="C322" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D322" s="267" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="C323" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D323" s="268" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="C324" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D324" s="269" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="C325" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D325" s="270" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="C326" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D326" s="271" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="C327" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D327" s="272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="C328" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D328" s="273" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="C329" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D329" s="274" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="C330" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D330" s="275" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="C331" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D331" s="371" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="C332" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D332" s="276" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="C333" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D333" s="277" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="C334" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D334" s="278" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="C335" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D335" s="279" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="C336" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D336" s="280" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="C337" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D337" s="281" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="C338" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D338" s="282" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="C339" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D339" s="283" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="C340" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D340" s="284" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="C341" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D341" s="285" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="C342" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D342" s="286" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="C343" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D343" s="287" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="C344" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D344" s="288" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="C345" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D345" s="289" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="C346" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D346" s="290" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="C347" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D347" s="291" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="C348" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D348" s="292" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="C349" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D349" s="293" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="C350" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D350" s="294" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="C351" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D351" s="295" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="C352" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D352" s="296" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="C353" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D353" s="297" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="C354" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D354" s="298" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="C355" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D355" s="299" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="C356" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D356" s="300" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="C357" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D357" s="301" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="C358" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D358" s="302" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="C359" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D359" s="303" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="C360" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D360" s="304" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="C361" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D361" s="305" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="C362" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D362" s="372" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="C363" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D363" s="306" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="C364" s="375" t="s">
+        <v>374</v>
+      </c>
       <c r="D364" s="307" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="C365" s="375" t="s">
+        <v>373</v>
+      </c>
       <c r="D365" s="308" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="C366" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D366" s="309" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="C367" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D367" s="310" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="C368" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D368" s="311" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="C369" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D369" s="312" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="C370" s="375" t="s">
+        <v>375</v>
+      </c>
       <c r="D370" s="373" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A870" s="1"/>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A876" s="1"/>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A883" s="1"/>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A890" s="1"/>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A897" s="1"/>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A904" s="1"/>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A911" s="1"/>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A918" s="1"/>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A925" s="1"/>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A932" s="1"/>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A939" s="1"/>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A946" s="1"/>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A953" s="1"/>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A960" s="1"/>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A967" s="1"/>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A974" s="1"/>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A981" s="1"/>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A988" s="1"/>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A995" s="1"/>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1001" s="1"/>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1008" s="1"/>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1015" s="1"/>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1022" s="1"/>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1029" s="1"/>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1036" s="1"/>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1043" s="1"/>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1050" s="1"/>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1057" s="1"/>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1064" s="1"/>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1071" s="1"/>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1078" s="1"/>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1085" s="1"/>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1092" s="1"/>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1099" s="1"/>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1106" s="1"/>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1113" s="1"/>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1120" s="1"/>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1126" s="1"/>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1133" s="1"/>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1140" s="1"/>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1147" s="1"/>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1154" s="1"/>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1161" s="1"/>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1168" s="1"/>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1175" s="1"/>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1182" s="1"/>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1189" s="1"/>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1196" s="1"/>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1203" s="1"/>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1210" s="1"/>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1217" s="1"/>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1224" s="1"/>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1231" s="1"/>
     </row>
   </sheetData>
